--- a/part_3_cohere/analysis/Round_4_scibert/dense_answer_relevance_results_multi_lang.xlsx
+++ b/part_3_cohere/analysis/Round_4_scibert/dense_answer_relevance_results_multi_lang.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_4_scibert/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF32DDA4-89AB-A045-BC4A-BDD4D6176482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F958539-AF85-694F-AAF3-3B91DEA72752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -31,568 +31,580 @@
     <t>which studies examined the abstract in metadata?</t>
   </si>
   <si>
-    <t>Summary answer: Two studies examined the availability and quality of abstracts in metadata, specifically within the context of Crossref and broader metadata quality issues.  
-DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and highlights improvements over time while noting the need for further efforts to achieve full openness of bibliographic metadata.  
-DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues, including how abstracts and other metadata elements reflect cultural meanings and impact discovery, emphasizing tensions between standardization and sociocultural representations.  
-Concluding statement: While the first study focuses on the quantitative availability of abstracts in Crossref, the second examines qualitative aspects of metadata, including abstracts, in the context of cultural and standardization challenges. Together, they provide complementary insights into the role of abstracts in metadata systems.</t>
+    <t>**Summary answer:** The study by DOI: 10.31222/osf.io/smxe5 explicitly examines the availability of abstracts as a metadata element in Crossref, while the other studies focus on metadata quality, error detection, and database comparisons without specific emphasis on abstracts.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that their availability has improved over time, particularly for journal articles, though many publishers still need to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, focusing on affiliation metadata, but does not specifically address abstracts.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, emphasizing tensions between sociocultural representations and standardized systems, without a specific focus on abstracts.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across multiple bibliographic databases, including OpenAlex, but does not examine abstracts as a metadata element.  
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces Multi-Meta-RAG, a method to improve retrieval-augmented generation using LLM-extracted metadata, but does not specifically focus on abstracts.  
+**Concluding statement:** Only the study by DOI: 10.31222/osf.io/smxe5 directly examines abstracts as a metadata element, while the other studies address broader metadata issues without specific attention to abstracts.</t>
   </si>
   <si>
     <t>which studies examined citations?</t>
   </si>
   <si>
-    <t>Summary answer: Several studies have examined citations, focusing on the comparison of bibliographic data sources, normalization of citation metrics, and the completeness of metadata in scholarly databases.
-DOI: 10.1162/qss_a_00112 - This study presents a large-scale comparison of five multidisciplinary bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic), analyzing differences in document coverage and the completeness and accuracy of citation links.
-DOI: 10.1371/journal.pbio.1002542 - The paper discusses the challenges and approaches to normalizing citation metrics, considering factors such as scientific fields, publication age, and document type, and highlights the importance of carefully evaluating the assumptions underlying different citation metrics.
-Concluding statement: These studies collectively contribute to a better understanding of the complexities surrounding citations, from data source comparisons to metric normalization, and emphasize the need for comprehensive and accurate metadata in scholarly databases.</t>
+    <t>Summary answer: Several studies have examined citations and bibliographic metadata across various databases, focusing on coverage, accuracy, and openness.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of bibliographic metadata elements in Crossref, including reference lists, and highlights improvements over time while noting the need for further efforts by publishers to ensure full openness.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) examines citation link completeness and accuracy, emphasizing the importance of comprehensive coverage and flexible filtering for literature selection.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types in OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, noting variations in typologies and classification methods that impact bibliometric analysis.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, which can be applied to affiliation data and other types of metadata to improve data quality.  
+Concluding statement: These studies collectively underscore the importance of open, accurate, and comprehensive bibliographic metadata for effective citation analysis and bibliometric research, while identifying areas for improvement in data availability and quality across different platforms.</t>
   </si>
   <si>
     <t>Tell me about OpenAlex.</t>
   </si>
   <si>
-    <t>Summary answer: OpenAlex is a free and open scholarly database that provides metadata under a CC0 license, but its funder metadata relies heavily on Crossref, which has limitations in coverage and quality.  
-DOI: 10.31274/b8136f97.ccc3dae4 - OpenAlex, a free and open scholarly database, uses Crossref as a primary data source for funder metadata, which can lead to gaps in coverage since Crossref often lacks this information due to its optional nature during DOI registration.  
-DOI: 10.1162/qss_a_00212 - Crossref, a key component of OpenAlex, exhibits limited coverage and quality issues in funding data, particularly for COVID-19 research, highlighting the need for improvements in open funding data availability.  
-Concluding statement: While OpenAlex offers a valuable open-access resource for scholarly metadata, its reliance on Crossref for funder data exposes it to inherent limitations in coverage and quality, underscoring the need for enhanced data enrichment methods or additional data sources.</t>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights that OpenAlex is gaining importance as a free alternative for bibliometric analyses. It emphasizes the variability in document typologies and classification methods across databases, with a specific focus on OpenAlex's coverage and analysis of publication types.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this paper discusses initiatives to promote open bibliographic metadata in Crossref, which is relevant to OpenAlex's mission of open access. It highlights improvements in metadata availability over time but notes that further efforts are needed for full openness, a goal aligned with OpenAlex's principles.  
+**Concluding Statement:** OpenAlex stands out as a critical open-access resource in academic research, addressing the need for transparent and comprehensive bibliographic data, as supported by studies emphasizing its growing importance and alignment with open metadata initiatives.</t>
   </si>
   <si>
     <t>Tell me about Crossref.</t>
   </si>
   <si>
-    <t>Summary answer: Crossref is a key provider of open bibliographic metadata, with ongoing efforts to improve the availability and quality of its data, though challenges remain in ensuring completeness and accuracy.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data for COVID-19 research shows limited coverage compared to proprietary databases like Scopus and Web of Science, highlighting the need for improvements in open funding data availability.  
-DOI: 10.31274/b8136f97.ccc3dae4 - Crossref serves as a foundational dataset for OpenAlex, but its optional funder metadata field often results in gaps, which Dimensions addresses by inferring funders from acknowledgments and publisher agreements.  
-DOI: 10.31222/osf.io/smxe5 - While Crossref has improved the availability of metadata elements like abstracts, ORCIDs, and funding information, many publishers still need to enhance their contributions to achieve full openness.  
-Concluding statement: Crossref plays a vital role in advancing open bibliographic metadata, but continued efforts from publishers and data providers are essential to address gaps in coverage and quality.</t>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, promoting accessibility and quality, though challenges remain in achieving full openness and addressing metadata errors across various datasets and platforms.
+DOI: 10.31222/osf.io/smxe5 - Crossref has adopted initiatives to enhance the open availability of bibliographic metadata, particularly for journal articles, with improvements noted in elements like reference lists, abstracts, and ORCIDs. However, many publishers still need to make additional efforts to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect errors in bibliographic datasets, such as incorrectly assigned affiliations, highlighting the need for quality checks in open metadata sources like Crossref.  
+DOI: 10.48550/arXiv.2406.13213 - While not directly about Crossref, this paper discusses improving retrieval-augmented generation (RAG) using metadata, which is relevant to Crossref’s role in providing structured metadata for scholarly documents.  
+DOI: 10.48550/arXiv.2406.15154 - This analysis compares bibliographic databases, including OpenAlex, and underscores the variability in document classification across platforms, emphasizing the importance of standardized metadata systems like Crossref.  
+DOI: 10.5860/crl.86.1.101 - The study highlights metadata quality issues arising from sociocultural tensions and resource constraints, which are relevant to Crossref’s efforts to maintain consistent and culturally sensitive metadata standards.  
+**Concluding Statement:** Crossref plays a pivotal role in advancing open bibliographic metadata, but ongoing efforts are needed to address challenges in completeness, accuracy, and standardization across scholarly publishing ecosystems.</t>
   </si>
   <si>
     <t>Which papers evaluate the linguistic coverage or language-related metadata in scholarly databases?</t>
   </si>
   <si>
-    <t>Several papers evaluate linguistic coverage or language-related metadata in scholarly databases, focusing on metadata quality, availability, and comparability across platforms.  
-**Summary answer:** Multiple studies assess linguistic and metadata aspects in scholarly databases, addressing issues like completeness, accuracy, and cross-platform disparities.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the availability of six metadata elements in Crossref, including reference lists and abstracts, highlighting improvements over time but noting the need for further publisher efforts to ensure full openness.  
-DOI: 10.48550/arXiv.2303.17661 - The study introduces MetaEnhance, a framework using AI to improve metadata quality in electronic theses and dissertations, achieving high accuracy in error detection and correction.  
-DOI: 10.1162/qss_a_00112 - This research compares five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, Microsoft Academic) in terms of document coverage, completeness, and citation accuracy, emphasizing the need for comprehensive yet flexible data selection tools.  
-Concluding statement: While progress has been made in enhancing metadata quality and coverage, ongoing efforts are required to address inconsistencies and ensure comprehensive linguistic and metadata representation across scholarly databases.</t>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on metadata availability, quality, and cross-database comparisons.  
+DOI: 10.31222/osf.io/smxe5 - This paper assesses the availability of six metadata elements (e.g., reference lists, ORCIDs, license information) in Crossref, highlighting improvements over time but noting the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, specifically applied to affiliation metadata, underscoring the importance of data quality in scholarly metadata.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, revealing significant differences in typologies and classification methods, with a focus on OpenAlex's coverage.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues across cultures, examining how sociocultural representations and resource constraints impact metadata consistency and completeness, particularly in reflecting cultural meanings.  
+**Concluding statement:** These studies collectively highlight the importance of evaluating linguistic and metadata coverage in scholarly databases, addressing gaps in openness, quality, and cross-database consistency while emphasizing the need for standardized and culturally sensitive metadata practices.</t>
   </si>
   <si>
     <t>Which papers address funding metadata, its availability, or its analysis in scholarly databases?</t>
   </si>
   <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and its comparison with proprietary databases.
-DOI: 10.31222/osf.io/smxe5 - This paper provides an overview of the availability of six metadata elements, including funding information, in Crossref, noting improvements over time but highlighting the need for further efforts by publishers to achieve full openness.  
-DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study examines the open availability of funding data in Crossref, compares it with Scopus and Web of Science, and identifies limitations in coverage and data quality, offering recommendations for improvement.  
-Concluding statement: While progress has been made in the availability of funding metadata in open infrastructures like Crossref, significant challenges remain in ensuring comprehensive and high-quality data, as highlighted by these studies.</t>
+    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, with a focus on Crossref's initiatives, metadata quality, and the use of open data for bibliometric analysis.
+DOI: 10.31222/osf.io/smxe5 - This paper discusses Crossref's efforts to promote open bibliographic metadata, including funding information, and highlights improvements in availability over time, though noting that many publishers still need to enhance full openness.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for quality open data, which indirectly supports the importance of accurate funding metadata.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication types across databases, including OpenAlex, and underscores the variability in metadata classification, which impacts bibliometric analysis and the availability of funding data.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues, including cultural influences, and highlights the importance of consistent and complete metadata for discovery and access, which is relevant to funding metadata availability.  
+**Concluding statement:** These papers collectively emphasize the importance of open, accurate, and consistent funding metadata in scholarly databases, while also addressing challenges in availability, quality, and cross-database comparability.</t>
   </si>
   <si>
     <t>Which papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications?</t>
   </si>
   <si>
-    <t>**Summary Answer:** Several papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models, focusing on enhancing multi-hop query performance, metadata integration, and open-domain question answering.  
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that improves RAG for multi-hop queries by using database filtering with LLM-extracted metadata, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - This study proposes **M-RAG**, a metadata-enhanced RAG approach for open-domain question answering, demonstrating up to 46% performance improvement over baseline systems and 6% over traditional RAG methods.  
-DOI: 10.5281/ZENODO.13960973 and DOI: 10.48550/arXiv.2303.17661 - These papers focus on metadata quality improvement and error detection in bibliographic datasets, which, while not directly related to RAG, contribute to the broader context of data reliability in scholarly applications.  
-DOI: 10.1145/3543873.3587655 - This work analyzes the impact of prompt syntax on knowledge retrieval in LLMs, providing insights into optimizing prompts for tasks like RAG but does not directly discuss RAG.  
-**Concluding Statement:** The papers directly relevant to RAG highlight innovative methods like Multi-Meta-RAG and M-RAG, which leverage metadata and advanced filtering techniques to enhance the capabilities of large language models in complex query and open-domain question answering scenarios.</t>
+    <t>**Summary Answer:** One paper discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries using database filtering with LLM-extracted metadata.
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that enhances Retrieval-Augmented Generation (RAG) for multi-hop queries by employing database filtering with metadata extracted by large language models (LLMs). The approach addresses the limitations of traditional RAG in handling complex, multi-step questions by improving the selection of relevant documents from diverse sources. The study demonstrates significant performance improvements on the MultiHop-RAG benchmark, with the code available for further exploration.
+**Concluding Statement:** While only one paper explicitly discusses RAG in the context of large language models, it provides a novel and effective method for enhancing RAG's capabilities in handling multi-hop queries, contributing valuable insights to the field.</t>
   </si>
   <si>
     <t>What is Crossref’s role in the scholarly research ecosystem?</t>
   </si>
   <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the discovery, accessibility, and traceability of research outputs.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are essential for discovery and access, but they also reflect sociocultural tensions and strategic choices, highlighting the need for standardized yet culturally sensitive metadata practices.  
-DOI: 10.1162/qss_a_00212 - Crossref’s open funding data infrastructure is vital for funding agencies to trace publications, though its coverage and data quality require improvement compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements in availability over time, but publishers must enhance efforts to ensure full openness of metadata elements.  
-DOI: 10.5281/ZENODO.13960973 - Open bibliographic datasets, including those in Crossref, benefit from methods to detect errors, such as missing data patterns, which can improve data quality for both providers and users.  
-DOI: 10.1371/journal.pbio.1002542 - While not directly about Crossref, this document underscores the importance of accurate and normalized citation metrics, which rely on robust metadata infrastructures like Crossref.  
-Concluding statement: Crossref’s role in providing open, standardized, and high-quality bibliographic metadata is indispensable for enhancing research discovery, traceability, and evaluation, though ongoing efforts are needed to address data quality and completeness.</t>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing data quality, and supporting interoperability across various academic platforms.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives that improve the availability of key elements such as reference lists, abstracts, ORCIDs, author affiliations, funding information, and license details, particularly for journal articles, though further efforts from publishers are needed for full openness.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method using missing data patterns to detect errors in bibliographic datasets, highlighting the need for quality improvements in open metadata, which aligns with Crossref’s role in fostering reliable and open scholarly data.  
+DOI: 10.48550/arXiv.2406.15154 - This analysis underscores the variability in publication and document types across bibliographic databases, emphasizing the importance of Crossref’s standardized metadata in ensuring consistency and comparability in scholarly research.  
+DOI: 10.48550/arXiv.2406.13213 - While focusing on retrieval-augmented generation (RAG), the study highlights the need for high-quality metadata in improving multi-hop query responses, indirectly supporting Crossref’s role in providing structured and accessible metadata.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, reinforcing Crossref’s importance in standardizing metadata practices to ensure inclusivity and accuracy in scholarly communication.  
+Concluding statement: Crossref’s efforts in standardizing and promoting open bibliographic metadata are essential for enhancing data quality, interoperability, and accessibility in the scholarly research ecosystem, addressing challenges from data errors to cultural representation.</t>
   </si>
   <si>
     <t>What are the key features and limitations of OpenAlex as a bibliometric database?</t>
   </si>
   <si>
-    <t>Summary answer: The provided context does not directly address the key features and limitations of OpenAlex as a bibliometric database.  
-DOI: 10.1371/journal.pbio.1002542 - This document discusses the challenges and considerations in normalizing citation metrics across different scientific fields, publication years, and document types, but does not mention OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This study focuses on the availability of open bibliographic metadata in Crossref, highlighting improvements and gaps, yet OpenAlex is not discussed.  
-DOI: 10.5281/ZENODO.13960973 - The paper introduces a method to detect errors in bibliographic datasets using missing data patterns, but does not reference OpenAlex.  
-DOI: 10.1162/qss_a_00112 - This research compares several bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, but OpenAlex is not included in the analysis.  
-DOI: 10.48550/arXiv.2303.17661 - The document proposes a framework for improving metadata quality in electronic theses and dissertations, without mentioning OpenAlex.  
-Concluding statement: Since none of the provided documents discuss OpenAlex, an answer to the query cannot be formulated based on the given context.</t>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata quality, consistency, and completeness compared to proprietary databases like Web of Science and Scopus.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliometric databases, highlighting its growing importance as a free alternative. It emphasizes OpenAlex's coverage of publication and document types but notes that typologies and classifications can differ significantly across databases, affecting bibliometric analyses.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, underscoring the challenges in maintaining consistent and complete metadata. While not directly focused on OpenAlex, it provides context for understanding the broader metadata quality concerns that may affect OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper discusses Crossref's role in promoting open bibliographic metadata, noting improvements in availability over time but also highlighting the need for further efforts by publishers. This is relevant to OpenAlex as it relies on open metadata sources like Crossref.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the importance of data quality in open datasets. This is pertinent to OpenAlex, as its open nature may expose it to such errors.  
+**Concluding Statement:** OpenAlex offers a valuable open-access alternative for bibliometric analysis, but its effectiveness is contingent on addressing metadata quality and consistency issues, which remain ongoing challenges in open bibliographic datasets.</t>
   </si>
   <si>
     <t>What are the strengths and weaknesses of Web of Science (WoS) as a bibliometric database?</t>
   </si>
   <si>
-    <t>**Summary answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses in limited open access, high costs, and variability in document classification compared to other databases.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, exhibits variability in document classification and typology compared to alternatives like OpenAlex, which may impact its suitability for certain bibliometric analyses.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison emphasizes WoS's strengths in comprehensive coverage and citation accuracy but notes its limitations in flexibility and accessibility when compared to other databases like Scopus or Dimensions.  
-DOI: 10.1162/qss_a_00212 - This analysis reveals that WoS, alongside Scopus, has limited coverage of funding data, which is critical for tracing research outcomes, underscoring a weakness in its metadata completeness.  
-**Concluding statement:** While WoS remains a cornerstone for bibliometric analysis due to its extensive coverage and reliable citation data, its proprietary nature, high costs, and inconsistencies in document classification and metadata availability present notable challenges compared to emerging open-access alternatives.</t>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation indexing, but it faces weaknesses such as limited open access, high costs, and potential biases in coverage across disciplines and regions.
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document typologies and classification methods differ significantly from other providers. This variation can affect the identification of relevant documents for bibliometric analysis, suggesting WoS may not be universally applicable across all research contexts.  
+DOI: 10.5281/ZENODO.13960973 - The paper emphasizes the importance of open data in bibliometric analysis, a domain where WoS, as a closed dataset, falls short. The study’s method for detecting errors in datasets underscores the need for transparency and quality control, areas where WoS’s proprietary nature may limit scrutiny.  
+Concluding statement: While WoS remains a cornerstone for bibliometric research due to its extensive coverage and citation data, its limitations in openness, cost, and potential biases highlight the growing importance of alternative databases like OpenAlex, which offer free and more transparent access to scholarly metadata.</t>
   </si>
   <si>
     <t>How is RAG used to improve question answering or information retrieval systems?</t>
   </si>
   <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing document selection, and leveraging metadata to improve context understanding and answer accuracy.  
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to enhance RAG's ability to handle multi-hop queries, significantly improving performance on the MultiHop-RAG benchmark by selecting more relevant documents from diverse sources.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - The paper proposes **M-RAG**, which incorporates metadata embeddings and generative models like GPT-4 to improve open-domain question answering, achieving up to 46% performance improvement by enabling better context understanding and source attribution.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, highlighting opportunities and challenges, and suggests that future LLMs should learn to interact with search engines to mitigate risks like hallucination and enhance trustworthiness.  
-DOI: 10.48550/arXiv.2109.05052 - The research focuses on knowledge conflicts in question answering, proposing a method to reduce over-reliance on parametric knowledge, thereby minimizing hallucinations and improving generalization for evolving or time-dependent queries.  
-**Concluding Statement:** RAG’s integration with metadata, external knowledge sources, and advanced filtering techniques significantly enhances its effectiveness in question answering and information retrieval, addressing challenges like multi-hop reasoning, context understanding, and hallucination.</t>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by leveraging external knowledge sources and LLM-extracted metadata to enhance document selection and reasoning, particularly for multi-hop queries.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's selection of relevant documents for multi-hop queries. This approach significantly enhances performance on the MultiHop-RAG benchmark, addressing traditional RAG's limitations in handling complex, multi-step questions.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about RAG, this document highlights the importance of open bibliographic metadata in Crossref, which can serve as a foundational knowledge source for RAG systems. Improved metadata availability enhances the quality of external knowledge sources used in RAG.  
+**Concluding Statement:** RAG's effectiveness in question answering and information retrieval is bolstered by innovations like Multi-Meta-RAG, which refine document selection and reasoning, and by the availability of high-quality, open metadata from sources like Crossref, which enrich external knowledge bases.</t>
   </si>
   <si>
     <t>What are the main challenges in normalizing citation metrics across scientific fields?</t>
   </si>
   <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, publication rates, document types, and database coverage, compounded by issues in metadata quality and openness.  
-DOI: 10.1371/journal.pbio.1002542 - This paper highlights the challenges in normalizing citation metrics, including accounting for field-specific differences, publication age, document type, and database coverage, while also addressing complexities in aggregating metrics for multi-authored papers or institutional assessments.  
-DOI: 10.31222/osf.io/smxe5 - The study emphasizes the improving availability of open bibliographic metadata in Crossref but notes that many publishers still fall short of full openness, which impacts the reliability of citation metrics across fields.  
-DOI: 10.5281/ZENODO.13960973 - This research introduces a method to detect errors in bibliographic datasets using missing data patterns, underscoring the need for high-quality, open metadata to ensure accurate citation metrics.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources reveals significant differences in coverage, completeness, and accuracy across disciplines, complicating efforts to normalize citation metrics.  
-DOI: 10.48550/arXiv.2303.17661 - This paper proposes MetaEnhance, a framework to improve metadata quality, addressing issues like incompleteness and inconsistency that hinder the normalization of citation metrics.  
-**Concluding Statement:** Addressing the challenges in normalizing citation metrics requires improved metadata openness, quality, and standardization, alongside field-specific adjustments to account for disciplinary differences in citation practices and publication norms.</t>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to variations in metadata availability, database classification inconsistencies, and the need for open, high-quality bibliographic data.  
+DOI: 10.31222/osf.io/smxe5 - Crossref’s initiatives to promote open bibliographic metadata have improved the availability of elements like reference lists and ORCIDs over time, but many publishers still need to enhance efforts for full openness, which is crucial for standardized citation metrics.  
+DOI: 10.5281/ZENODO.13960973 - The quality of open bibliographic datasets remains inconsistent, with errors in affiliation and other metadata, necessitating methods like missing data pattern analysis to ensure data reliability for cross-field comparisons.  
+DOI: 10.48550/arXiv.2406.15154 - Differences in document classification and typologies across databases like OpenAlex, Scopus, and Web of Science complicate the standardization of citation metrics, as research and non-research texts are inconsistently distinguished.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from sociocultural tensions, resource constraints, and standardization challenges, impacting the consistency and completeness of data needed for normalized metrics.  
+**Concluding Statement:** Addressing these challenges requires collaborative efforts to enhance metadata openness, standardize database classifications, and develop robust methods for ensuring data quality across scientific fields.</t>
   </si>
   <si>
     <t>What methods are used to detect and correct errors in bibliographic datasets?</t>
   </si>
   <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, employing AI-driven frameworks like MetaEnhance, and conducting large-scale comparisons of data sources to identify inconsistencies and inaccuracies.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, demonstrating its effectiveness in identifying incorrectly affiliated papers in a dataset associated with ETH Zurich.  
-DOI: 10.48550/arXiv.2303.17661 - The MetaEnhance framework uses state-of-the-art AI methods to automatically detect, correct, and canonicalize scholarly metadata, achieving high F1-scores in error detection and correction for electronic theses and dissertations.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) highlights differences in coverage, completeness, and accuracy, emphasizing the need for flexible filters and comprehensive coverage.  
-**Concluding Statement:** These methods collectively contribute to improving the quality and reliability of bibliographic datasets by addressing errors through pattern analysis, AI-driven corrections, and comparative evaluations of data sources.</t>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability and consistency, leveraging LLM-extracted metadata for database filtering, and examining sociocultural influences on metadata quality.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which helps identify incorrectly assigned articles and can be extended to other data types.  
+DOI: 10.31222/osf.io/smxe5 - The paper highlights the improving availability of metadata elements in Crossref over time but notes that many publishers still need to enhance the openness and completeness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG is introduced as a method to improve retrieval-augmented generation (RAG) for multi-hop queries by using LLM-extracted metadata for database filtering, enhancing the accuracy of document selection.  
+DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues across cultures, identifying tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on metadata consistency and completeness.  
+**Concluding Statement:** These methods collectively address error detection and correction in bibliographic datasets by focusing on data patterns, metadata availability, advanced filtering techniques, and cultural influences, thereby improving dataset quality and reliability.</t>
   </si>
   <si>
     <t>tell me about how RAG works.</t>
   </si>
   <si>
-    <t>Summary answer: Retrieval-Augmented Generation (RAG) is a method that enhances large language models by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
-DOI: 10.48550/arXiv.2406.13213 - This document introduces Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using database filtering with metadata extracted by large language models, significantly enhancing performance on benchmarks.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about RAG, this paper discusses detecting errors in bibliographic datasets using missing data patterns, which could indirectly support data quality for RAG systems.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data in open and proprietary databases, highlighting metadata quality issues that could impact the reliability of external knowledge sources used in RAG.  
-DOI: 10.31274/b8136f97.ccc3dae4 - The paper compares funder metadata in OpenAlex and Dimensions, emphasizing the importance of metadata enrichment, which is relevant to the quality of external data sources in RAG.  
-DOI: 10.5860/crl.86.1.101 - This document explores metadata quality issues across cultures, underscoring the need for consistent and accurate metadata, which is crucial for the effectiveness of RAG systems.  
-Concluding statement: While the primary document on Multi-Meta-RAG directly addresses RAG improvements, other documents indirectly highlight the importance of metadata quality and reliability in external knowledge sources, which are essential for RAG’s effectiveness.</t>
-  </si>
-  <si>
-    <t>Summary answer: Two studies specifically examined the availability and quality of abstracts in metadata, while others touched on metadata quality more broadly.  
-DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time, further efforts are needed for full openness.  
-DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues, including how cultural meanings and community intentions influence metadata consistency and completeness, though it does not specifically focus on abstracts.  
-Concluding statement: While the first study directly addresses the availability of abstracts in metadata, the second study provides a broader context on metadata quality, indirectly relevant to the examination of abstracts. Other studies in the context focus on different aspects of metadata, such as funding data and citation metrics, without specifically examining abstracts.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, normalization, and availability across different bibliographic data sources.  
-DOI: 10.1162/qss_a_00112 - This study compares five multidisciplinary bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - This paper discusses the challenges and approaches to normalizing citation metrics across scientific fields, document types, and databases, emphasizing the need for careful consideration of underlying assumptions.  
-DOI: 10.1162/qss_a_00212 - While primarily focused on funding data, this study also examines the availability and quality of citation-related metadata in Crossref, Scopus, and Web of Science, revealing issues in coverage and accuracy.  
-DOI: 10.1162/qss_a_00286 - This research evaluates the completeness of publication metadata, including citation-related fields, across eight free-access scholarly databases, identifying disparities between academic search engines and third-party databases.  
-DOI: 10.1162/qss_a_00210 - This case study investigates the availability and completeness of funder metadata in Crossref and proprietary databases, indirectly addressing citation metadata quality and its implications for tracking research outcomes.  
-Concluding statement: These studies collectively underscore the importance of evaluating citation data across platforms, addressing normalization challenges, and improving metadata completeness to enhance the reliability of bibliometric analyses.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a free and open scholarly database that provides metadata under a CC0 license, but its funder metadata coverage is limited compared to paid databases like Dimensions, which enriches data through natural language processing and publisher agreements.  
-DOI: 10.31274/b8136f97.ccc3dae4 - OpenAlex relies heavily on Crossref for its dataset, meaning if Crossref lacks certain metadata (e.g., funder information), OpenAlex will also have gaps, whereas Dimensions enhances funder metadata by analyzing acknowledgements and obtaining additional data from publishers.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about OpenAlex, this paper highlights the importance of data quality in open datasets, which is relevant to OpenAlex as it aims to provide reliable open metadata.  
-DOI: 10.1162/qss_a_00212 - This study underscores the limited coverage of funding data in Crossref, a key data source for OpenAlex, suggesting OpenAlex may face challenges in providing comprehensive funding metadata.  
-Concluding statement: OpenAlex offers valuable open access to scholarly metadata but faces limitations in funder data coverage, which are partially addressed by proprietary databases like Dimensions through additional data enrichment methods.</t>
-  </si>
-  <si>
-    <t>Summary answer: Crossref is a key provider of open bibliographic metadata, with ongoing efforts to improve the availability and quality of its data, though challenges remain in ensuring completeness and accuracy.  
-DOI: 10.1162/qss_a_00212 - An exploratory analysis of funding data in Crossref for COVID-19 research highlights limited coverage and quality issues, with recommendations for enhancing open availability.  
-DOI: 10.31274/b8136f97.ccc3dae4 - Crossref serves as a foundational dataset for OpenAlex, but its optional funder metadata field often results in gaps, while Dimensions enriches this data through NLP and publisher agreements.  
-DOI: 10.31222/osf.io/smxe5 - An overview of metadata availability in Crossref shows improvements over time, particularly for journal articles, but notes that publishers must further contribute to achieve full openness.  
-Concluding statement: While Crossref plays a vital role in open bibliographic metadata, its effectiveness is constrained by optional fields, data quality issues, and reliance on publisher contributions, necessitating continued efforts to enhance completeness and accuracy.</t>
-  </si>
-  <si>
-    <t>Several papers evaluate linguistic coverage or language-related metadata in scholarly databases, focusing on metadata quality, availability, and comparability across platforms.  
-**Summary answer:** Multiple studies assess linguistic and metadata aspects in scholarly databases, addressing issues like completeness, accuracy, and cross-platform disparities.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the availability of six metadata elements in Crossref, including reference lists and abstracts, highlighting improvements over time but noting the need for further publisher efforts to ensure full openness.  
-DOI: 10.48550/arXiv.2303.17661 - The study introduces MetaEnhance, a framework using AI to improve metadata quality in electronic theses and dissertations, achieving high accuracy in error detection and correction for key fields.  
-DOI: 10.1162/qss_a_00112 - This research compares five bibliographic data sources, analyzing differences in document coverage, citation accuracy, and discipline-specific variations, emphasizing the need for comprehensive yet flexible data selection tools.  
-Concluding statement: These papers collectively underscore the importance of enhancing metadata quality and coverage in scholarly databases, particularly in multilingual and multidisciplinary contexts, to improve accessibility and reliability of academic research.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Two papers directly address funding metadata, its availability, or its analysis in scholarly databases.  
-DOI: 10.31222/osf.io/smxe5 - This paper examines the availability of six metadata elements in Crossref, including funding information, and highlights improvements over time while noting the need for further efforts by publishers to ensure full openness of bibliographic metadata.  
-DOI: 10.1162/qss_a_00212 - This study analyzes the open availability of funding data in Crossref, particularly for COVID-19 research, and compares it with proprietary databases like Scopus and Web of Science, identifying limited coverage and quality issues in funding metadata.  
-**Concluding statement:** While the first paper provides a broader overview of metadata availability in Crossref, including funding information, the second paper focuses specifically on funding metadata, its limitations, and recommendations for improvement, making both relevant to the query.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models, focusing on enhancing multi-hop query performance, metadata integration, and open-domain question answering.  
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that improves RAG for multi-hop queries by using database filtering with LLM-extracted metadata, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - This study proposes **M-RAG**, a metadata-enhanced RAG approach for open-domain question answering, achieving up to 46% performance improvement by leveraging metadata embeddings and generative models like GPT-4.  
-**Concluding Statement:** Both Multi-Meta-RAG and M-RAG demonstrate innovative applications of RAG, highlighting its potential to address complex query types and improve accuracy in large language models through metadata integration and advanced retrieval techniques.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing a centralized repository for open bibliographic metadata, supporting the traceability of research funding, and enhancing the discoverability and accessibility of scholarly publications.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are essential for discovery and access, yet they often reflect sociocultural tensions and strategic choices, highlighting the need for standardized systems that accommodate diverse representations.  
-DOI: 10.1162/qss_a_00212 - Crossref’s open funding data infrastructure is vital for funding agencies to trace publications, though its coverage and data quality require improvement compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.31222/osf.io/smxe5 - While the availability of bibliographic metadata in Crossref has improved, particularly for journal articles, publishers must enhance their efforts to achieve full openness of metadata elements.  
-DOI: 10.5281/ZENODO.13960973 - Open bibliographic datasets, including those in Crossref, benefit from methods to detect errors, such as using missing data patterns, which can improve data quality for both providers and users.  
-DOI: 10.1371/journal.pbio.1002542 - Crossref’s metadata supports citation metrics, which are critical for research evaluation, though normalization and attribution challenges must be carefully addressed to ensure fair and meaningful assessments.  
-In conclusion, Crossref is a cornerstone of the scholarly research ecosystem, facilitating metadata openness, funding traceability, and research discoverability, though ongoing efforts are needed to enhance data quality and completeness.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not directly address the key features and limitations of OpenAlex as a bibliometric database.  
-DOI: 10.1371/journal.pbio.1002542 - This document discusses challenges in normalizing citation metrics across different scientific fields, publication years, and document types, emphasizing the need for careful consideration of underlying assumptions in metric calculations.  
-DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of open bibliographic metadata in Crossref, highlighting improvements over time but noting that many publishers still need to enhance metadata openness.  
-DOI: 10.5281/ZENODO.13960973 - The paper introduces a method to detect errors in bibliographic datasets using missing data patterns, applied to affiliation metadata, and suggests its broader applicability for improving data quality.  
-DOI: 10.1162/qss_a_00112 - This research compares five bibliographic data sources, including Crossref and Microsoft Academic, analyzing differences in coverage, completeness, and accuracy of citation links, and emphasizing the need for comprehensive yet flexible data sources.  
-DOI: 10.48550/arXiv.2303.17661 - The study proposes MetaEnhance, a framework using AI to improve metadata quality for electronic theses and dissertations, achieving high accuracy in error detection and correction.  
-Concluding statement: While the provided documents offer insights into bibliometric challenges, metadata quality, and data source comparisons, they do not specifically address OpenAlex, making it impossible to answer the query based on the given context.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses such as limited open access, high costs, and variability in document type classification compared to other databases.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, exhibits variability in document type classification, which can affect the distinction between research and non-research texts, potentially impacting bibliometric analyses.  
-DOI: 10.1162/qss_a_00112 - The large-scale comparison emphasizes WoS's strengths in comprehensive coverage and accurate citation links but notes the importance of flexible filters for literature selection, an area where WoS may be less adaptable compared to newer platforms.  
-DOI: 10.31222/osf.io/smxe5 - While not directly focused on WoS, this study underscores the growing importance of open bibliographic metadata, an area where WoS lags behind open alternatives like Crossref.  
-DOI: 10.1162/qss_a_00212 - This analysis reveals limited coverage of funding data in WoS compared to open data infrastructures, highlighting a weakness in tracking research funding outcomes.  
-**Concluding statement:** WoS remains a valuable tool for bibliometric analysis due to its extensive coverage and reliable citation data, but its proprietary nature, high costs, and limitations in open access and metadata flexibility position it as less adaptable than emerging open alternatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop reasoning, and leveraging metadata to increase accuracy and relevance.  
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's handling of multi-hop queries, significantly enhancing performance on benchmarks by selecting more relevant documents from diverse sources.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - The paper proposes **M-RAG**, which incorporates metadata embeddings and generative models like GPT-4 to enhance open-domain question answering, achieving up to 46% performance improvement by enabling better context understanding and source attribution.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, highlighting their potential to transform IR systems while addressing challenges like hallucination, and suggests future research directions, including LLMs learning to interact with search engines.  
-**Concluding Statement:** RAG’s integration of external knowledge and metadata-driven approaches significantly enhances question answering and information retrieval, though challenges like hallucination and system integration remain critical areas for future research.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Normalizing citation metrics across scientific fields faces challenges due to differences in citation practices, publication cultures, and varying database coverage, compounded by issues in metadata quality and openness.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including differences across fields, publication age, document types, and database coverage, while emphasizing the need for careful consideration of underlying assumptions when combining metrics for evaluating scientists, institutions, or countries.  
-DOI: 10.31222/osf.io/smxe5 - The study focuses on the availability of open bibliographic metadata in Crossref, noting improvements over time but identifying gaps in publisher efforts to ensure full openness, which impacts the reliability of citation metrics across fields.  
-DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, underscoring the need for high-quality open data to support accurate citation metric normalization.  
-DOI: 10.1162/qss_a_00112 - The research compares major bibliographic data sources, revealing discrepancies in coverage, completeness, and accuracy of citation links across disciplines, which complicates normalization efforts.  
-DOI: 10.48550/arXiv.2303.17661 - This work proposes MetaEnhance, a framework to improve metadata quality for electronic theses and dissertations, addressing issues of incompleteness and inconsistency that hinder accurate citation metric normalization.  
-**Concluding statement:** Addressing these challenges requires improved metadata openness, standardized data quality, and a deeper understanding of field-specific citation practices to ensure fair and accurate normalization of citation metrics.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, employing AI-driven frameworks like MetaEnhance, and conducting large-scale comparisons of data sources to identify inconsistencies and inaccuracies.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, demonstrating its effectiveness in identifying incorrectly affiliated papers in a dataset associated with ETH Zurich.  
-DOI: 10.48550/arXiv.2303.17661 - The MetaEnhance framework uses state-of-the-art AI methods to automatically detect, correct, and canonicalize scholarly metadata, achieving high F1-scores in error detection and correction for electronic theses and dissertations.  
-DOI: 10.1162/qss_a_00112 - This research compares five major bibliographic data sources, highlighting differences in coverage, completeness, and accuracy of citation links, which can inform error detection and correction strategies.  
-Concluding statement: These methods collectively contribute to improving the quality and reliability of bibliographic datasets by addressing issues such as missing data, metadata inconsistencies, and discrepancies across data sources.</t>
-  </si>
-  <si>
-    <t>Summary answer: Retrieval-Augmented Generation (RAG) is a technique that enhances large language models by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions.  
-DOI: 10.48550/arXiv.2406.13213 - The study introduces Multi-Meta-RAG, a method that uses database filtering with LLM-extracted metadata to improve RAG's ability to handle multi-hop queries by selecting more relevant documents from diverse sources, significantly enhancing performance on benchmarks.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about RAG, this paper highlights the importance of data quality in scholarly datasets, which is crucial for the accuracy of retrieval systems like RAG.  
-DOI: 10.31274/b8136f97.ccc3dae4 - This study compares funder metadata in OpenAlex and Dimensions, emphasizing the challenges in metadata completeness and inference, which are relevant to the reliability of external knowledge sources used in RAG.  
-Concluding statement: While the provided documents do not comprehensively explain RAG, they underscore the importance of data quality and retrieval accuracy, which are foundational to RAG's effectiveness in answering queries.</t>
-  </si>
-  <si>
-    <t>Summary answer: Two studies specifically examined the availability and quality of abstracts in metadata, while others touched on metadata quality more broadly.  
-DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and finds that while availability has improved over time, particularly for journal articles, many publishers still need to enhance efforts for full openness of bibliographic metadata.  
-DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues, including how abstracts and other metadata elements reflect cultural meanings, and identifies tensions between sociocultural representations and standardized systems, highlighting the need for interventions to improve consistency and completeness.  
-Concluding statement: While the first study directly assesses the availability of abstracts in Crossref metadata, the second study indirectly examines abstracts as part of broader metadata quality issues, emphasizing their role in cultural representation and standardization.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic data sources and metrics.  
-DOI: 10.1162/qss_a_00112 - This study compares five multidisciplinary bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and analyzes differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - The paper discusses the challenges and approaches to normalizing citation metrics across scientific fields, document types, and databases, emphasizing the need for careful consideration of underlying assumptions.  
-DOI: 10.1162/qss_a_00212, DOI: 10.1162/qss_a_00286, and DOI: 10.1162/qss_a_00210 - While these studies primarily focus on funding metadata and publication metadata completeness, they indirectly relate to citations by examining the quality and availability of data in bibliographic databases, which are essential for citation analysis.  
-Concluding statement: The examined studies collectively contribute to understanding citation practices, metrics, and data source reliability, providing insights for improving citation analysis and bibliometric research.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a free and open scholarly database that provides metadata under a CC0 license, offering a valuable resource for academic research, though it has limitations in funder metadata coverage compared to proprietary databases like Dimensions.
-DOI: 10.31274/b8136f97.ccc3dae4 - OpenAlex, a free and open scholarly database, relies heavily on Crossref for its metadata, which can limit its coverage of funder information compared to Dimensions, a paid database that uses natural language processing and publisher agreements to enrich funder metadata.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about OpenAlex, this paper highlights the importance of open bibliometric datasets and introduces a method to detect errors in such datasets, which could be applied to improve the quality of open databases like OpenAlex.  
-DOI: 10.1162/qss_a_00212 - This study emphasizes the limited coverage of funding data in Crossref, a key data source for OpenAlex, and suggests improvements for open funding data availability, which could enhance OpenAlex's utility.  
-Concluding statement: OpenAlex serves as a significant open-access resource for scholarly metadata, but its reliance on Crossref and the optional nature of funder data at DOI registration highlight areas for potential improvement in coverage and quality.</t>
-  </si>
-  <si>
-    <t>Summary answer: Crossref is a key provider of open bibliographic metadata, with ongoing efforts to improve the availability and quality of metadata elements, though challenges remain in ensuring full openness and accuracy.  
-DOI: 10.1162/qss_a_00212 - Crossref’s open funding data for COVID-19 research shows limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, highlighting the need for improvements in open data infrastructures.  
-DOI: 10.31274/b8136f97.ccc3dae4 - Crossref serves as a foundational dataset for OpenAlex, but its optional funder metadata field often results in missing information, while Dimensions enriches Crossref data through natural language processing and publisher agreements.  
-DOI: 10.31222/osf.io/smxe5 - An analysis of Crossref’s metadata availability reveals improvements over time for journal articles but underscores the need for publishers to enhance openness in elements like funding and license information.  
-Concluding statement: While Crossref plays a critical role in advancing open bibliographic metadata, its effectiveness is constrained by gaps in data completeness and quality, necessitating collaborative efforts from publishers and data providers to address these limitations.</t>
-  </si>
-  <si>
-    <t>Several papers evaluate linguistic coverage or language-related metadata in scholarly databases, focusing on metadata quality, availability, and comparison across platforms.  
-**DOI: 10.31222/osf.io/smxe5** - This paper assesses the availability of six metadata elements in Crossref, including reference lists and abstracts, highlighting improvements over time but noting the need for further publisher efforts to achieve full openness.  
-**DOI: 10.48550/arXiv.2303.17661** - The study introduces MetaEnhance, a framework using AI to improve metadata quality in electronic theses and dissertations, demonstrating high accuracy in error detection and correction across key fields.  
-**DOI: 10.1162/qss_a_00112** - This research compares five bibliographic data sources, including Crossref, analyzing differences in document coverage, completeness, and citation accuracy, emphasizing the need for comprehensive and flexible data selection tools.  
-These papers collectively underscore the importance of enhancing metadata quality and coverage in scholarly databases, particularly in relation to linguistic and bibliographic elements, to improve discoverability and usability of academic research.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and its comparison with proprietary databases.
-DOI: 10.31222/osf.io/smxe5 - This paper provides an overview of the availability of six metadata elements, including funding information, in Crossref, highlighting improvements over time but noting the need for further efforts by publishers to achieve full openness.  
-DOI: 10.1162/qss_a_00212 - Focusing on COVID-19 research, this study examines the open availability of funding data in Crossref, compares it with Scopus and Web of Science, and identifies limitations in coverage and data quality, offering recommendations for improvement.  
-Concluding statement: While progress has been made in the availability of funding metadata in open infrastructures like Crossref, significant challenges remain in ensuring comprehensive and high-quality data, as highlighted by these studies.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Two papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications, specifically focusing on enhancing multi-hop queries and open-domain question answering.  
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that improves RAG for multi-hop queries by using database filtering with LLM-extracted metadata. It addresses the poor performance of traditional RAG in multi-hop scenarios and demonstrates significant improvements on the MultiHop-RAG benchmark.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - This paper proposes **M-RAG**, a Metadata Retrieval-Augmented Generation method for open-domain question answering (ODQA). It integrates metadata embeddings and generative models like GPT-3.5 and GPT-4 to enhance answer accuracy and source attribution, achieving up to 46% performance improvement over baseline ODQA systems.  
-**Concluding Statement:** Both papers contribute to advancing RAG techniques by addressing specific challenges in multi-hop reasoning and open-domain question answering, demonstrating the potential of metadata integration and filtering mechanisms in improving LLM performance.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing open bibliographic metadata and supporting the traceability of research outputs, though challenges remain in data quality and completeness.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are essential for discovery and access but are often influenced by sociocultural representations and resource constraints, highlighting the need for interventions to balance standardization and cultural reflection.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data availability for COVID-19 research is limited compared to proprietary databases like Scopus and Web of Science, necessitating improvements for better traceability of funded research.  
-DOI: 10.31222/osf.io/smxe5 - While the availability of key metadata elements in Crossref has improved, particularly for journal articles, many publishers still need to enhance efforts to achieve full openness of bibliographic metadata.  
-DOI: 10.5281/ZENODO.13960973 - Open bibliographic datasets, including those in Crossref, face quality issues such as incorrectly assigned articles, underscoring the need for methods to detect and correct errors.  
-DOI: 10.1371/journal.pbio.1002542 - Citation metrics, which rely on metadata from platforms like Crossref, require careful normalization to account for field-specific and temporal differences, emphasizing the importance of accurate and comprehensive metadata.  
-Concluding statement: Crossref is a vital infrastructure for open scholarly metadata, yet ongoing efforts are needed to enhance data quality, completeness, and interoperability to fully support research evaluation and discovery.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not directly address the key features and limitations of OpenAlex as a bibliometric database.  
-DOI: 10.1371/journal.pbio.1002542 - This document discusses the challenges and considerations in normalizing citation metrics across different scientific fields, publication years, and document types, but does not mention OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper focuses on the availability of open bibliographic metadata in Crossref, highlighting improvements and remaining gaps, without referencing OpenAlex.  
-DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for quality in open data, but does not discuss OpenAlex.  
-DOI: 10.1162/qss_a_00112 - This research compares several bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, analyzing their coverage, completeness, and accuracy, but OpenAlex is not included in the comparison.  
-DOI: 10.48550/arXiv.2303.17661 - The paper proposes a framework for improving metadata quality in electronic theses and dissertations, focusing on error detection and correction, without mentioning OpenAlex.  
-Concluding statement: Since none of the provided documents discuss OpenAlex, I cannot provide an answer to the query based on the given context.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage and citation accuracy but has weaknesses in cost, limited open access, and variability in document classification compared to other databases.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, exhibits variability in document classification and typology compared to alternatives like OpenAlex, which may impact its suitability for certain bibliometric analyses.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison underscores WoS's strengths in coverage and citation accuracy but notes its limitations in flexibility and accessibility when compared to open-source or more comprehensive databases like Dimensions or Crossref.  
-DOI: 10.1162/qss_a_00212 - This analysis reveals that WoS, alongside Scopus, has limited coverage of funding data, which is critical for tracing research outcomes, further highlighting its weaknesses in specific metadata availability.  
-**Concluding statement:** While WoS remains a robust tool for bibliometric analysis due to its extensive coverage and reliable citation data, its proprietary nature, cost, and inconsistencies in document classification and metadata availability present significant challenges compared to emerging open-access alternatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing document selection, and leveraging metadata to improve context understanding and answer accuracy.
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to enhance RAG's ability to handle multi-hop queries, significantly improving performance on the MultiHop-RAG benchmark by selecting more relevant documents from diverse sources.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - The paper proposes **M-RAG**, which incorporates metadata embeddings and generative models like GPT-4 to improve open-domain question answering, achieving up to 46% performance improvement by enabling better context understanding and source attribution.  
-DOI: 10.5281/ZENODO.13960973 - While not directly related to RAG, this study focuses on detecting errors in bibliographic datasets using missing data patterns, which could indirectly benefit RAG systems by improving the quality of external knowledge sources.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, highlighting opportunities and challenges, and suggests that LLMs will complement rather than replace search engines, emphasizing the need for LLMs to interact with IR systems effectively.  
-**Concluding Statement:** RAG systems are advanced through methods like Multi-Meta-RAG and M-RAG, which leverage metadata and external knowledge to improve document retrieval and answer accuracy, while broader research underscores the importance of integrating LLMs with traditional IR systems to address challenges like hallucination and enhance trustworthiness.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, publication cultures, and varying database coverage, compounded by issues in metadata quality and openness.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including differences across fields, publication age, document types, and database coverage, while emphasizing the need for careful consideration of underlying assumptions when combining metrics for evaluating scientists, institutions, or countries.  
-DOI: 10.31222/osf.io/smxe5 - The study focuses on the improving availability of open bibliographic metadata in Crossref, noting that while progress has been made, many publishers still need to enhance openness, which is critical for accurate and comprehensive citation normalization.  
-DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, underscoring the importance of data quality for reliable citation metrics and normalization efforts.  
-DOI: 10.1162/qss_a_00112 - The research compares major bibliographic data sources, revealing significant differences in coverage, completeness, and accuracy of citation links, which complicates normalization across fields and datasets.  
-DOI: 10.48550/arXiv.2303.17661 - This work proposes MetaEnhance, a framework to improve metadata quality for electronic theses and dissertations, addressing issues of incompleteness and inconsistency that hinder accurate citation metric normalization.  
-**Concluding statement:** Addressing the challenges in normalizing citation metrics requires improving metadata openness and quality, standardizing data sources, and accounting for field-specific citation practices to ensure fair and accurate comparisons across scientific disciplines.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, employing AI-driven frameworks like MetaEnhance, and conducting large-scale comparisons of data sources to identify inconsistencies and inaccuracies.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, demonstrating its effectiveness in identifying incorrectly affiliated papers in a dataset associated with ETH Zurich.  
-DOI: 10.48550/arXiv.2303.17661 - The MetaEnhance framework uses state-of-the-art AI methods to automatically detect, correct, and canonicalize scholarly metadata, achieving high F1-scores in error detection and correction for electronic theses and dissertations.  
-DOI: 10.1162/qss_a_00112 - This research compares five major bibliographic data sources, highlighting differences in coverage, completeness, and accuracy of citation links, which can inform error detection and correction strategies.  
-**Concluding Statement:** These methods collectively provide robust tools for improving the quality and reliability of bibliographic datasets, addressing issues such as missing data, incorrect affiliations, and inconsistent metadata across different sources.</t>
-  </si>
-  <si>
-    <t>Summary answer: Retrieval-Augmented Generation (RAG) is a method that enhances large language models by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
-DOI: 10.48550/arXiv.2406.13213 - This document introduces Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using database filtering with metadata extracted by large language models, significantly enhancing performance on benchmarks.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about RAG, this paper discusses a method to detect errors in datasets using missing data patterns, which could indirectly support data quality for RAG applications.  
-Concluding statement: The provided documents highlight the importance of data quality and retrieval techniques in RAG, with Multi-Meta-RAG offering a specific advancement for handling complex queries.</t>
-  </si>
-  <si>
-    <t>Summary answer: Two studies specifically examined the availability and quality of abstracts in metadata, while others touched on metadata quality more broadly.  
-DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and highlights improvements over time but notes the need for further efforts to achieve full openness of bibliographic metadata.  
-DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues, including how cultural contexts influence metadata consistency and completeness, though it does not specifically focus on abstracts.  
-Concluding statement: While the first study explicitly addresses the availability of abstracts in metadata, the second study contributes to the broader understanding of metadata quality, which indirectly relates to the examination of abstract metadata.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, normalization, and availability across different bibliographic data sources.  
-DOI: 10.1162/qss_a_00112 - This study compares five multidisciplinary bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and analyzes differences in the completeness and accuracy of citation links, emphasizing the importance of combining comprehensive coverage with flexible filters.  
-DOI: 10.1371/journal.pbio.1002542 - This primer discusses the challenges and approaches to normalizing citation metrics, addressing issues such as field differences, publication age, and database coverage, while highlighting the complementary insights offered by different metrics.  
-DOI: 10.1162/qss_a_00210 - This case study examines the availability and completeness of open funder metadata in Crossref, comparing it with proprietary databases like Web of Science, Scopus, and Dimensions, and identifies gaps in funding information coverage.  
-Concluding statement: These studies collectively highlight the complexities in examining citations, from data source discrepancies to normalization challenges, underscoring the need for improved metadata quality and standardization across platforms.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a free and open scholarly database that provides metadata under a CC0 license, but its funder metadata coverage is limited compared to paid databases like Dimensions, which uses natural language processing and publisher agreements to enrich funding information.
-DOI: 10.31274/b8136f97.ccc3dae4 - OpenAlex relies heavily on Crossref for its dataset, which means that if funding information is not provided during DOI registration, OpenAlex will not have it, whereas Dimensions uses natural language processing to infer funders from article acknowledgements and has agreements with publishers for additional funding data.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about OpenAlex, this study highlights the importance of data quality in open datasets, which is relevant to OpenAlex as it aims to provide reliable open metadata.  
-DOI: 10.1162/qss_a_00212 - This study reveals limited coverage of funding data in Crossref, a key data source for OpenAlex, underscoring the challenges OpenAlex faces in providing comprehensive funder metadata.  
-Concluding statement: OpenAlex offers a valuable open alternative to proprietary databases, but its reliance on Crossref and lack of advanced data enrichment methods like those used by Dimensions limit its funder metadata coverage, highlighting the need for continued improvements in open data infrastructures.</t>
-  </si>
-  <si>
-    <t>Summary answer: Crossref is a key provider of open bibliographic metadata, with ongoing efforts to improve the availability and quality of its data, though challenges remain in areas like funding information and publisher contributions.  
-DOI: 10.1162/qss_a_00212 - An exploratory analysis of funding data in Crossref for COVID-19 research highlights limited coverage and quality issues, with recommendations for enhancing open availability.  
-DOI: 10.31274/b8136f97.ccc3dae4 - Crossref serves as a foundational dataset for OpenAlex, but its optional funder metadata field often results in gaps, while Dimensions enriches data through NLP and publisher agreements.  
-DOI: 10.31222/osf.io/smxe5 - Availability of metadata elements in Crossref has improved, particularly for journal articles, but publishers need to increase efforts for full openness.  
-DOI: 10.5281/ZENODO.139660973 - While not directly about Crossref, this paper introduces a method to detect errors in datasets, which could be applied to improve data quality in open repositories like Crossref.  
-Concluding statement: Crossref plays a vital role in open scholarly metadata, but continued collaboration with publishers and enhancements in data collection and quality are essential to maximize its utility.</t>
-  </si>
-  <si>
-    <t>Several papers evaluate linguistic coverage or language-related metadata in scholarly databases, focusing on metadata quality, availability, and comparison across platforms.  
-DOI: 10.31222/osf.io/smxe5 - This study examines the availability of six metadata elements in Crossref, including reference lists and abstracts, highlighting improvements over time but noting the need for further efforts to achieve full openness of bibliographic metadata.  
-DOI: 10.48550/arXiv.2303.17661 - The paper introduces MetaEnhance, a framework for improving metadata quality in electronic theses and dissertations, demonstrating high accuracy in detecting and correcting errors in key metadata fields.  
-DOI: 10.1162/qss_a_00112 - This research compares five bibliographic data sources, including Crossref, analyzing differences in document coverage, completeness, and accuracy of citation links, with implications for linguistic and disciplinary coverage.  
-These studies collectively underscore the importance of enhancing metadata quality and coverage in scholarly databases to support comprehensive and accurate linguistic and bibliographic analysis.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, particularly focusing on Crossref and its comparison with proprietary databases.
-DOI: 10.31222/osf.io/smxe5 - This paper provides an overview of the availability of six metadata elements, including funding information, in Crossref, noting improvements over time but highlighting the need for further efforts by publishers to achieve full openness.  
-DOI: 10.1162/qss_a_00212 - The study examines the open availability of funding data in Crossref, particularly for COVID-19 research, and compares it with Scopus and Web of Science, revealing limited coverage and quality issues, with recommendations for improvement.  
-Concluding statement: These papers collectively emphasize the importance of enhancing the availability and quality of funding metadata in open scholarly databases, particularly Crossref, to support transparency and traceability in research funding outcomes.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models, focusing on enhancing multi-hop query performance, metadata integration, and open-domain question answering.  
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that improves RAG for multi-hop queries by using database filtering with LLM-extracted metadata, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - This study proposes **M-RAG**, a metadata retrieval-augmented generation approach for open-domain question answering, demonstrating up to 46% performance improvement over baseline systems and 6% over existing RAG methods by leveraging metadata and prompt engineering.  
-**Concluding Statement:** Both Multi-Meta-RAG and M-RAG highlight the potential of integrating metadata and advanced filtering techniques to enhance RAG's effectiveness in complex query scenarios and open-domain question answering.</t>
-  </si>
-  <si>
-    <t>Crossref plays a critical role in the scholarly research ecosystem by providing a centralized repository for open bibliographic metadata, supporting the discovery, accessibility, and traceability of research outputs.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are essential for discovery and access, yet they often reflect cultural tensions and strategic choices, highlighting the need for standardized systems that accommodate diverse representations.  
-DOI: 10.1162/qss_a_00212 - Crossref’s open funding data infrastructure is vital for funding agencies to trace publications, though its coverage and data quality require improvement compared to proprietary databases like Scopus and Web of Science.  
-DOI: 10.31222/osf.io/smxe5 - While the availability of bibliographic metadata in Crossref has improved, particularly for journal articles, publishers must enhance their efforts to achieve full openness of metadata elements.  
-DOI: 10.5281/ZENODO.13960973 - Crossref’s open data supports methods to detect errors in bibliographic datasets, such as incorrectly assigned affiliations, contributing to data quality and reliability in scholarly research.  
-DOI: 10.1371/journal.pbio.1002542 - Crossref’s metadata underpins citation metrics, which are critical for research evaluation, though normalization challenges and careful interpretation of metrics remain essential.  
-In conclusion, Crossref serves as a foundational infrastructure for open scholarly metadata, enabling research discovery, traceability, and quality assurance, while ongoing efforts are needed to enhance data completeness and accuracy.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not directly address the key features and limitations of OpenAlex as a bibliometric database.  
-DOI: 10.1371/journal.pbio.1002542 - This document discusses the challenges and considerations in normalizing citation metrics across different scientific fields, publication years, and document types, but does not mention OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper focuses on the availability of open bibliographic metadata in Crossref, highlighting improvements and remaining gaps, without referencing OpenAlex.  
-DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for quality in open data, but does not discuss OpenAlex.  
-DOI: 10.1162/qss_a_00112 - This research compares several bibliographic data sources, including Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic, analyzing their coverage, completeness, and accuracy, yet OpenAlex is not included in the comparison.  
-DOI: 10.48550/arXiv.2303.17661 - The paper proposes a framework for improving metadata quality in electronic theses and dissertations, focusing on error detection and correction, but does not address OpenAlex.  
-Concluding statement: Since none of the provided documents discuss OpenAlex, I cannot provide an answer to the query based on the given context.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage and citation accuracy but has weaknesses in limited open access, high costs, and variability in document classification.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, exhibits variability in document classification and typologies compared to open alternatives like OpenAlex, which may impact bibliometric analyses.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison reveals WoS has strong coverage and accurate citation links but emphasizes the need for flexible filters to address limitations in multidisciplinary and time-based coverage.  
-DOI: 10.1162/qss_a_00212 - WoS is noted for its funding data availability, though it faces challenges in completeness and quality compared to open data sources like Crossref.  
-**Concluding statement:** While WoS remains a reliable tool for bibliometric analysis due to its extensive coverage and citation accuracy, its proprietary nature, high costs, and inconsistencies in document classification and funding data limit its accessibility and flexibility compared to emerging open alternatives.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing document selection, and leveraging metadata to improve context understanding and answer accuracy.  
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's performance on multi-hop queries, significantly enhancing document selection and accuracy in multi-hop question answering.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - The paper proposes **M-RAG**, which incorporates metadata embeddings and generative models like GPT-4 to enhance open-domain question answering, achieving up to 46% performance improvement by enabling better context understanding and source attribution.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the opportunities and challenges of using large language models in information retrieval, emphasizing the need for LLMs to interact with search engines to mitigate risks like hallucination and enhance trustworthiness.  
-DOI: 10.48550/arXiv.2109.05052 - The research focuses on knowledge conflicts in question answering, proposing a method to reduce over-reliance on parametric knowledge, thereby minimizing hallucinations and improving generalization in evolving information contexts.  
-**Concluding Statement:** RAG-based methods, such as Multi-Meta-RAG and M-RAG, demonstrate significant advancements in question answering and information retrieval by leveraging external knowledge, metadata, and improved document selection, while addressing challenges like hallucination and knowledge conflicts.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, citation cultures, and data quality issues, which require careful consideration of field-specific factors and metadata accuracy.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including accounting for differences across fields, publication age, document types, and database coverage, while emphasizing the need for careful consideration of underlying assumptions in metric calculations.  
-DOI: 10.31222/osf.io/smxe5 - The study focuses on the improving availability of open bibliographic metadata in Crossref, noting that while progress has been made, many publishers still need to enhance openness, which impacts the reliability of citation metrics across fields.  
-DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, underscoring the importance of data quality for accurate citation metrics and normalization efforts.  
-DOI: 10.1162/qss_a_00112 - The research compares major bibliographic data sources, revealing significant differences in coverage, completeness, and accuracy across disciplines, which complicates normalization due to varying data reliability.  
-DOI: 10.48550/arXiv.2303.17661 - This work proposes MetaEnhance, a framework to improve metadata quality, demonstrating high accuracy in error detection and correction, which is essential for robust citation metrics across fields.  
-**Concluding Statement:** Effective normalization of citation metrics requires addressing field-specific citation practices, ensuring metadata openness and accuracy, and leveraging advanced methods to enhance data quality, as highlighted by the diverse challenges and solutions presented in these studies.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, employing AI-driven frameworks like MetaEnhance, and conducting large-scale comparisons of data sources to identify inconsistencies and inaccuracies.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, demonstrating its effectiveness in identifying incorrectly affiliated papers in a dataset associated with ETH Zurich.  
-DOI: 10.48550/arXiv.2303.17661 - The MetaEnhance framework uses state-of-the-art AI methods to automatically detect, correct, and canonicalize scholarly metadata, achieving high F1-scores in error detection and correction for electronic theses and dissertations.  
-DOI: 10.1162/qss_a_00112 - This research compares five major bibliographic data sources, highlighting differences in coverage, completeness, and accuracy of citation links, which can inform error detection and correction strategies.  
-**Concluding Statement:** These methods collectively offer robust approaches to enhance the quality and reliability of bibliographic datasets, addressing issues such as missing data, inconsistencies, and inaccuracies through both pattern analysis and advanced AI techniques.</t>
-  </si>
-  <si>
-    <t>Summary answer: Retrieval-Augmented Generation (RAG) is a method that enhances large language models by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
-DOI: 10.48550/arXiv.2406.13213 - This document introduces Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using database filtering with metadata extracted by large language models, significantly enhancing performance on benchmarks.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about RAG, this paper discusses a method to detect errors in bibliographic datasets using missing data patterns, which could indirectly support data quality for RAG systems.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data in open and proprietary databases, highlighting metadata quality issues, which are relevant to the reliability of external knowledge sources used in RAG.  
-DOI: 10.31274/b8136f97.ccc3dae4 - The paper compares funder metadata in OpenAlex and Dimensions, emphasizing the importance of metadata enrichment, which is crucial for the accuracy of RAG systems relying on external data.  
-DOI: 10.5860/crl.86.1.101 - This work explores metadata quality issues across cultures, underscoring the need for consistent and culturally sensitive metadata, which can impact the effectiveness of RAG systems.  
-Concluding statement: While the provided documents do not directly explain RAG in detail, they collectively highlight the importance of metadata quality, enrichment, and error detection in external knowledge sources, which are critical for the effectiveness of RAG systems.</t>
-  </si>
-  <si>
-    <t>Summary answer: Two studies examined the availability and quality of abstracts in metadata, specifically within the context of Crossref and broader metadata quality issues.  
-DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and highlights improvements over time while noting the need for further efforts to achieve full openness of bibliographic metadata.  
-DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues, including how abstracts and other metadata elements reflect cultural meanings and impact individuals and communities, emphasizing tensions between standardization and sociocultural representation.  
-Concluding statement: While the first study focuses on the quantitative availability of abstracts in Crossref, the second examines the qualitative aspects of metadata, including abstracts, in the context of cultural and community impacts. Together, they provide complementary insights into the role of abstracts within metadata systems.</t>
-  </si>
-  <si>
-    <t>Summary answer: Several studies have examined citations, focusing on their completeness, accuracy, and normalization across different bibliographic data sources and metrics.  
-DOI: 10.1162/qss_a_00112 - This study compares five multidisciplinary bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) and evaluates differences in the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
-DOI: 10.1371/journal.pbio.1002542 - The paper discusses the challenges and approaches to normalizing citation metrics across scientific fields, document types, and databases, emphasizing the need for careful consideration of underlying assumptions.  
-DOI: 10.1162/qss_a_00212 - While primarily focused on funding data, this study also examines the availability and quality of citation-related metadata in Crossref, Scopus, and Web of Science, revealing issues in coverage and accuracy.  
-Concluding statement: These studies collectively underscore the importance of critically evaluating citation data across different sources and metrics to ensure reliable and meaningful analysis in academic research.</t>
-  </si>
-  <si>
-    <t>Summary answer: OpenAlex is a free and open scholarly database that provides metadata under a CC0 license, offering a valuable resource for accessing and analyzing scholarly information, though it has limitations in funder metadata compared to proprietary databases like Dimensions.
-DOI: 10.31274/b8136f97.ccc3dae4 - OpenAlex, a free and open scholarly database, relies heavily on Crossref for its metadata, which can limit its funder data coverage compared to proprietary databases like Dimensions, which use natural language processing and publisher agreements to enrich funder metadata.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about OpenAlex, this paper highlights the importance of open bibliometric datasets and methods to detect errors, which is relevant to OpenAlex's role in providing open scholarly metadata.  
-DOI: 10.1162/qss_a_00212 - This study emphasizes the limited coverage and quality issues in funding data within open infrastructures like Crossref, which OpenAlex depends on, underscoring the need for improvements in open data availability.  
-Concluding statement: OpenAlex serves as a critical open-access resource for scholarly metadata, but its reliance on Crossref and the optional nature of funder data at DOI registration highlight areas for improvement in coverage and quality, particularly when compared to proprietary databases.</t>
-  </si>
-  <si>
-    <t>Summary answer: Crossref is a key provider of open bibliographic metadata, with ongoing efforts to improve the availability and quality of its data, though challenges remain in ensuring completeness and accuracy.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data for COVID-19 research shows limited coverage and quality issues compared to proprietary databases like Scopus and Web of Science, highlighting the need for improvements in open funding data availability.  
-DOI: 10.31274/b8136f97.ccc3dae4 - Crossref serves as a foundational dataset for OpenAlex, but its optional funder metadata field often results in missing information, while Dimensions enriches Crossref data through natural language processing and publisher agreements.  
-DOI: 10.31222/osf.io/smxe5 - An analysis of Crossref’s metadata availability reveals improvements over time for elements like abstracts and ORCIDs, but many publishers still fall short of achieving full openness.  
-DOI: 10.5281/ZENODO.139660973 - While not directly about Crossref, this study introduces a method to detect errors in bibliographic datasets, which could be applied to improve data quality in platforms like Crossref.  
-Concluding statement: Crossref plays a vital role in advancing open bibliographic metadata, but continued efforts are needed to address gaps in data completeness, accuracy, and publisher participation to fully realize its potential.</t>
-  </si>
-  <si>
-    <t>Several papers evaluate linguistic coverage or language-related metadata in scholarly databases, focusing on metadata quality, availability, and comparisons across platforms.  
-**Summary answer:** Multiple studies assess linguistic and metadata coverage in scholarly databases, highlighting improvements, challenges, and recommendations for enhancement.  
-DOI: 10.31222/osf.io/smxe5 - This paper evaluates the availability of six metadata elements in Crossref, including reference lists and abstracts, noting improvements over time but emphasizing the need for publishers to enhance openness.  
-DOI: 10.48550/arXiv.2303.17661 - The study introduces MetaEnhance, a framework to improve metadata quality in electronic theses and dissertations, achieving high accuracy in error detection and correction.  
-DOI: 10.1162/qss_a_00112 - This research compares five bibliographic data sources, analyzing coverage differences by document type and discipline, and emphasizes the need for comprehensive yet flexible data selection tools.  
-Concluding statement: While progress has been made in metadata availability and quality, ongoing efforts are required to address inconsistencies and enhance linguistic coverage across scholarly databases.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Two papers directly address funding metadata, its availability, or its analysis in scholarly databases, while a third paper indirectly touches on metadata quality, which could include funding metadata.  
-DOI: 10.31222/osf.io/smxe5 - This paper provides an overview of the availability of six metadata elements in Crossref, including funding information, and highlights improvements over time but notes that publishers need to enhance efforts for full openness.  
-DOI: 10.1162/qss_a_00212 - Focusing on funding data for COVID-19 research, this study analyzes the open availability of funding metadata in Crossref and compares it with proprietary databases like Scopus and Web of Science, identifying limited coverage and quality issues.  
-DOI: 10.5860/crl.86.1.101 - While not directly about funding metadata, this paper explores metadata quality issues, which are relevant to the broader context of funding metadata availability and consistency.  
-**Concluding statement:** The papers by DOI: 10.31222/osf.io/smxe5 and DOI: 10.1162/qss_a_00212 directly address funding metadata in scholarly databases, emphasizing its availability and quality, while DOI: 10.5860/crl.86.1.101 provides a broader perspective on metadata quality challenges.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Several papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models, focusing on enhancing multi-hop queries, metadata integration, and open-domain question answering.  
-DOI: 10.48550/arXiv.2406.13213 - The paper introduces **Multi-Meta-RAG**, a method that improves RAG for multi-hop queries by using database filtering with LLM-extracted metadata, significantly enhancing performance on the MultiHop-RAG benchmark.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - This study proposes **M-RAG**, a metadata-enhanced RAG approach for open-domain question answering, achieving up to 46% performance improvement by leveraging metadata embeddings and generative models like GPT-4.  
-DOI: 10.5281/ZENODO.13960973 and DOI: 10.48550/arXiv.2303.17661 - These papers focus on metadata quality improvement and error detection in bibliographic datasets, which, while not directly about RAG, are relevant to the broader context of data retrieval and accuracy in scholarly applications.  
-DOI: 10.1145/3543873.3587655 - This paper analyzes the impact of prompt syntax on knowledge retrieval in LLMs, providing insights into optimizing prompts for tasks like RAG, though it does not directly discuss RAG.  
-**Concluding Statement:** The papers highlight advancements in RAG through metadata integration and multi-hop query handling, while also emphasizing the importance of metadata quality and prompt design in enhancing retrieval and generation capabilities in large language models.</t>
-  </si>
-  <si>
-    <t>Crossref plays a crucial role in the scholarly research ecosystem by providing a central repository for open bibliographic metadata, supporting the discovery, accessibility, and traceability of scholarly publications.  
-DOI: 10.5860/crl.86.1.101 - Metadata quality, consistency, and completeness are essential for discovery and access, but they also reflect sociocultural tensions and strategic choices, highlighting the need for standardized yet culturally sensitive metadata practices.  
-DOI: 10.1162/qss_a_00212 - Crossref’s funding data, while improving, remains limited in coverage and quality compared to proprietary databases, necessitating further efforts to enhance its utility for funding agencies.  
-DOI: 10.31222/osf.io/smxe5 - Crossref serves as a key source of open bibliographic metadata, with improvements in availability over time, though many publishers still need to contribute more fully to achieve complete openness.  
-DOI: 10.5281/ZENODO.13960973 - Open bibliographic datasets, including those in Crossref, require quality assurance methods to detect errors, ensuring reliability for both providers and users.  
-DOI: 10.1371/journal.pbio.1002542 - While not directly about Crossref, this document underscores the importance of accurate and normalized metadata in citation metrics, which rely on platforms like Crossref for data.  
-In conclusion, Crossref is a vital infrastructure in the scholarly ecosystem, facilitating open access to metadata, supporting funding traceability, and enhancing research discoverability, though ongoing efforts are needed to address data quality and completeness.</t>
-  </si>
-  <si>
-    <t>Summary answer: The provided context does not directly address the key features and limitations of OpenAlex as a bibliometric database.  
-DOI: 10.1371/journal.pbio.1002542 - This document discusses challenges in normalizing citation metrics across different scientific fields, publication years, document types, and databases, but does not mention OpenAlex.  
-DOI: 10.31222/osf.io/smxe5 - This paper focuses on the availability of open bibliographic metadata in Crossref, highlighting improvements and gaps, but does not discuss OpenAlex.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for quality in open data, but does not reference OpenAlex.  
-DOI: 10.1162/qss_a_00112 - This research compares several bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) in terms of coverage, completeness, and accuracy, but OpenAlex is not included in the analysis.  
-DOI: 10.48550/arXiv.2303.17661 - This paper proposes a framework for improving metadata quality in electronic theses and dissertations, focusing on error detection and correction, but does not address OpenAlex.  
-Concluding statement: Since none of the provided documents discuss OpenAlex, I cannot provide an answer to the query based on the given context.</t>
-  </si>
-  <si>
-    <t>**Summary answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation data, but it faces weaknesses such as limited inclusion of non-English publications, high costs, and varying classification of document types compared to other databases.  
-DOI: 10.48550/arXiv.2406.15154 - This study highlights that WoS, like other proprietary databases, exhibits variability in document type classification and differentiation between research and non-research texts, which can impact bibliometric analysis.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of WoS with other databases reveals its strengths in coverage and citation accuracy but underscores the need for flexible filters to address discipline-specific and temporal variations in data.  
-DOI: 10.1162/qss_a_00212 - WoS is noted for its funding data availability, though it faces challenges in completeness and quality, similar to other proprietary databases like Scopus.  
-**Concluding statement:** While WoS remains a cornerstone for bibliometric analysis due to its extensive journal coverage and reliable citation data, its limitations in cost, language bias, and document classification necessitate careful consideration and potential supplementation with other databases for comprehensive research evaluation.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by integrating external knowledge sources, enhancing multi-hop reasoning, and leveraging metadata to increase accuracy and relevance.  
-DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's performance on multi-hop queries, significantly enhancing document selection and relevance for complex questions.  
-DOI: 10.6109/jkiice.2023.27.12.1489 - The paper proposes **M-RAG**, which incorporates metadata embeddings and generative models like GPT-4 to enhance open-domain question answering, achieving up to 46% performance improvement by enabling better context understanding and source attribution.  
-DOI: 10.1145/3626772.3657848 - This perspective paper discusses the role of LLMs in information retrieval, highlighting opportunities and challenges, and suggests that LLMs will complement, not replace, search engines by learning to interact with them effectively.  
-DOI: 10.48550/arXiv.2109.05052 - The research focuses on knowledge conflicts in question answering, proposing a method to mitigate over-reliance on parametric knowledge, reducing hallucinations and improving generalization for evolving information.  
-**Concluding Statement:** RAG’s integration of external knowledge, metadata, and advanced techniques like Multi-Meta-RAG and M-RAG significantly enhances question answering and information retrieval, addressing challenges like multi-hop reasoning and hallucination while improving accuracy and relevance.</t>
-  </si>
-  <si>
-    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in citation practices, publication rates, document types, and database coverage, compounded by issues in metadata quality and openness.  
-DOI: 10.1371/journal.pbio.1002542 - This document highlights the challenges in normalizing citation metrics, including accounting for field-specific differences, publication age, document type, and database coverage, while also addressing complexities in aggregating metrics for multi-authored papers or institutional evaluations.  
-DOI: 10.31222/osf.io/smxe5 - The study emphasizes the improving availability of open bibliographic metadata in Crossref but notes that many publishers still fall short of full openness, which impacts the reliability of citation metrics across fields.  
-DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, underscoring the need for high-quality, open metadata to ensure accurate citation metrics.  
-DOI: 10.1162/qss_a_00112 - A large-scale comparison of bibliographic data sources reveals significant differences in coverage, completeness, and accuracy of citation links, highlighting the challenges in standardizing metrics across fields and databases.  
-DOI: 10.48550/arXiv.2303.17661 - This research proposes MetaEnhance, a framework to improve metadata quality for electronic theses and dissertations, demonstrating the importance of accurate metadata for reliable citation metrics.  
-**Concluding Statement:** The challenges in normalizing citation metrics stem from field-specific citation practices, incomplete or closed metadata, and variations in database coverage, necessitating improved metadata quality and openness to ensure fair and accurate comparisons across scientific disciplines.</t>
-  </si>
-  <si>
-    <t>Summary answer: Methods to detect and correct errors in bibliographic datasets include analyzing missing data patterns, employing AI-driven frameworks like MetaEnhance, and conducting large-scale comparisons of data sources to identify inconsistencies and inaccuracies.  
-DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, demonstrating its effectiveness in identifying incorrectly affiliated papers in a dataset associated with ETH Zurich.  
-DOI: 10.48550/arXiv.2303.17661 - The MetaEnhance framework is proposed, utilizing advanced AI techniques to automatically detect, correct, and canonicalize scholarly metadata, achieving high F1-scores in error detection and correction for electronic theses and dissertations.  
-DOI: 10.1162/qss_a_00112 - This research compares five major bibliographic data sources, highlighting differences in coverage, completeness, and accuracy of citation links, which can inform strategies for error detection and correction across datasets.  
-Concluding statement: These methods collectively offer robust approaches to enhance the quality and reliability of bibliographic datasets, addressing challenges related to missing data, metadata inconsistencies, and cross-platform discrepancies.</t>
-  </si>
-  <si>
-    <t>Summary answer: Retrieval-Augmented Generation (RAG) is a method that enhances large language models by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
-DOI: 10.48550/arXiv.2406.13213 - This document introduces Multi-Meta-RAG, a method that improves RAG for multi-hop queries by using database filtering with metadata extracted by large language models, significantly enhancing performance on benchmarks.  
-DOI: 10.5281/ZENODO.13960973 - While not directly about RAG, this paper discusses detecting errors in bibliographic datasets using missing data patterns, which could indirectly support the quality of data used in RAG systems.  
-DOI: 10.1162/qss_a_00212 - This study focuses on funding data availability in open and proprietary databases, highlighting metadata quality issues that could impact the reliability of external knowledge sources used in RAG.  
-DOI: 10.31274/b8136f97.ccc3dae4 - The paper compares funder metadata in OpenAlex and Dimensions, discussing how metadata enrichment methods (e.g., NLP analysis of acknowledgments) can improve data quality, which is relevant for RAG’s reliance on accurate external data.  
-DOI: 10.5860/crl.86.1.101 - This work examines metadata quality issues across cultures, emphasizing the importance of consistent and complete metadata, which is crucial for the effectiveness of RAG systems in retrieving relevant information.  
-Concluding statement: While the primary document on Multi-Meta-RAG directly explains how RAG works and its advancements, the other documents indirectly highlight the importance of metadata quality and accuracy in external knowledge sources, which are essential for RAG’s effectiveness.</t>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) is a method that enhances large language models (LLMs) by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces Multi-Meta-RAG, a method that uses database filtering with LLM-extracted metadata to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on benchmarks.  
+DOI: 10.31222/osf.io/smxe5 - This paper discusses the open availability of bibliographic metadata in Crossref, highlighting improvements over time but noting the need for publishers to further enhance metadata openness, which is relevant to RAG's reliance on quality external data.  
+DOI: 10.5281/ZENODO.13960973 - The research presents a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the importance of data quality for applications like RAG that depend on accurate external knowledge sources.  
+**Concluding Statement:** While RAG improves LLM performance by integrating external knowledge, its effectiveness relies on the quality and openness of bibliographic metadata, as highlighted by studies on metadata availability, error detection, and innovative RAG enhancements like Multi-Meta-RAG.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** The studies by DOI: 10.31222/osf.io/smxe5 and DOI: 10.5860/crl.86.1.101 specifically examined the role and availability of abstracts in metadata.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of bibliographic metadata in Crossref, including abstracts as one of the six key metadata elements analyzed. It highlights improvements in abstract availability over time for journal articles but notes that further efforts are needed for full openness.  
+DOI: 10.5860/crl.86.1.101 - This research investigates metadata quality issues, including the role of abstracts in reflecting cultural meanings and their impact on discovery and access. It identifies how abstracts, as part of metadata, interact with community and cultural contexts.  
+**Concluding statement:** While other studies in the context touch on metadata quality and usage, only the above two explicitly focus on abstracts as a critical component of metadata.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several studies have examined citations, focusing on the availability, accuracy, and completeness of citation data across various bibliographic databases.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of bibliographic metadata in Crossref, including reference lists, and highlights improvements over time while noting the need for further efforts by publishers to ensure full openness.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, emphasizing differences in classification and the implications for bibliometric analysis.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, which can indirectly improve citation data quality by identifying misassigned articles.  
+DOI: 10.1162/qss_a_00212 - The study examines funding data availability in Crossref, Scopus, and Web of Science, indirectly addressing citation tracking as it relates to funding outcomes.  
+DOI: 10.1162/qss_a_00112 - This large-scale comparison of bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic) specifically analyzes the completeness and accuracy of citation links across platforms.  
+**Concluding statement:** These studies collectively contribute to understanding the challenges and opportunities in citation analysis, emphasizing the need for standardized, open, and high-quality bibliographic data across databases.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights that OpenAlex is gaining significance as a free alternative for bibliometric analyses. It emphasizes the variability in document typologies and classification methods across databases, with OpenAlex providing distinct coverage and analysis of publication types.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses the importance of open bibliographic metadata, which aligns with OpenAlex's mission as an open-access resource. It underscores the need for publishers to improve metadata openness, a principle OpenAlex supports.  
+DOI: 10.5281/ZENODO.13960973 - This paper addresses the quality of open bibliographic datasets, a critical aspect for OpenAlex as it relies on open data. The method introduced for detecting errors in datasets could enhance the reliability of OpenAlex's metadata.  
+DOI: 10.48550/arXiv.2406.13213 - Although focused on improving retrieval-augmented generation (RAG) for multi-hop queries, this document indirectly supports OpenAlex's utility by emphasizing the importance of metadata extraction and filtering, which are essential for efficient querying in large open databases like OpenAlex.  
+**Concluding Statement:** OpenAlex stands out as a vital open-access resource for bibliometric analyses, offering comprehensive coverage and addressing challenges in metadata quality and classification, as supported by the studies provided. Its growing importance is underscored by its role as a free alternative to proprietary databases and its alignment with open data principles.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, promoting initiatives to enhance metadata availability, though challenges remain in achieving full openness and quality across datasets.
+DOI: 10.31222/osf.io/smxe5 - Crossref has adopted initiatives to promote open bibliographic metadata, with improvements in the availability of elements like reference lists, abstracts, and ORCIDs, particularly for journal articles. However, many publishers still need to make additional efforts to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect errors in bibliographic datasets, highlighting the need for quality assurance in open metadata, as called for by the DORA declaration and CoARA.  
+DOI: 10.48550/arXiv.2406.13213 - While not directly about Crossref, this paper discusses improving retrieval-augmented generation (RAG) using metadata, underscoring the importance of metadata quality and accessibility in enhancing information retrieval systems.  
+DOI: 10.48550/arXiv.2406.15154 - This analysis compares bibliographic databases, including OpenAlex, and highlights discrepancies in document classification, emphasizing the need for standardized metadata practices across platforms like Crossref.  
+DOI: 10.5860/crl.86.1.101 - The study identifies metadata quality issues stemming from sociocultural tensions and resource constraints, suggesting that initiatives like Crossref’s must consider these factors to ensure metadata reflects diverse cultural meanings.  
+**Concluding Statement:** Crossref plays a pivotal role in advancing open bibliographic metadata, but ongoing efforts are needed to address challenges in completeness, quality, and standardization, as highlighted by the diverse studies provided.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on metadata availability, error detection, database comparisons, and cultural implications.  
+DOI: 10.31222/osf.io/smxe5 - This paper assesses the availability of six metadata elements (e.g., reference lists, ORCIDs) in Crossref, highlighting improvements over time but noting the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, specifically applied to affiliation metadata, demonstrating its utility in identifying misassigned articles.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, revealing significant differences in typologies and classification methods, particularly emphasizing OpenAlex's coverage.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues across cultures, examining how sociocultural representations, resource constraints, and standardization impact metadata consistency and completeness.  
+**Concluding Statement:** These studies collectively highlight the importance of evaluating linguistic and metadata coverage in scholarly databases, addressing issues from availability and accuracy to cultural representation and cross-database disparities.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, with a focus on open access, quality, and cross-database comparisons.  
+DOI: 10.31222/osf.io/smxe5 - This paper examines the availability of funding information as one of the six metadata elements in Crossref, highlighting improvements over time but noting the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - While primarily focused on detecting errors in affiliation metadata, this study indirectly relates to funding metadata by emphasizing the importance of open and accurate scholarly datasets, which are crucial for funding analysis.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication types across databases, including OpenAlex, and discusses the variability in classification, which impacts the identification of funding-related metadata in bibliometric analyses.  
+DOI: 10.5860/crl.86.1.101 - This paper explores metadata quality issues, including funding metadata, by analyzing how cultural and systemic factors affect metadata completeness and consistency across databases.  
+DOI: 10.48550/arXiv.2406.13213 - Although focused on improving multi-hop queries using metadata, this study indirectly supports the analysis of funding metadata by enhancing the retrieval of relevant documents from scholarly databases.  
+**Concluding Statement:** These papers collectively underscore the importance of funding metadata in scholarly databases, addressing its availability, quality, and role in bibliometric analyses, while highlighting the need for standardized and open metadata practices.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Two papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models, specifically focusing on improving RAG for multi-hop queries and its application in document retrieval.  
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata. It addresses the limitations of traditional RAG in handling complex, multi-step questions and demonstrates significant improvements on the MultiHop-RAG benchmark.  
+DOI: 10.31222/osf.io/smxe5 - While this paper primarily focuses on open bibliographic metadata in Crossref, it does not directly discuss RAG or its applications in large language models.  
+**Concluding statement:** The provided context includes one paper directly relevant to RAG in large language models, highlighting advancements in handling multi-hop queries, while the other papers focus on bibliographic metadata and related topics.</t>
+  </si>
+  <si>
+    <t>Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing data quality, and supporting interoperability across various academic databases.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives that improve the availability of key elements such as reference lists, abstracts, ORCIDs, author affiliations, funding information, and license details, particularly for journal articles, though further efforts from publishers are needed for full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect errors in bibliographic datasets, highlighting the need for quality improvements in open metadata, which aligns with Crossref’s role in fostering open and accurate scholarly data.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis of publication and document types across databases underscores the importance of standardized metadata, a key area where Crossref contributes by providing consistent and open metadata frameworks.  
+DOI: 10.48550/arXiv.2406.13213 - While focusing on improving retrieval-augmented generation (RAG) for multi-hop queries, this research indirectly benefits from Crossref’s metadata standards, which enhance the quality and accessibility of scholarly data for such applications.  
+DOI: 10.5860/crl.86.1.101 - This study examines metadata quality issues across cultures, emphasizing the need for inclusive and standardized metadata practices, an area where Crossref’s initiatives contribute to addressing sociocultural and technical challenges.  
+Concluding statement: Crossref’s efforts to standardize and open bibliographic metadata are essential for improving data quality, interoperability, and accessibility in the scholarly research ecosystem, as evidenced by its role in addressing metadata challenges and supporting innovative research methodologies.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata quality, consistency, and potential errors in data assignment compared to proprietary databases.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other databases like Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting that OpenAlex provides a free alternative with broad coverage of publication and document types. However, it notes that typologies and classifications can differ significantly across databases, affecting bibliometric analyses.  
+DOI: 10.5281/ZENODO.13960973 - The paper introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for quality checks in open datasets like OpenAlex. It identifies issues such as incorrectly assigned affiliations, which are relevant to OpenAlex’s reliance on open data.  
+DOI: 10.31222/osf.io/smxe5 - While focusing on Crossref, this study underscores the importance of open bibliographic metadata, a principle OpenAlex adheres to. It highlights improvements in metadata availability over time but notes that full openness requires further efforts from publishers, a challenge OpenAlex may also face.  
+**Concluding Statement:** OpenAlex stands out as a valuable open-access bibliometric database, particularly for its comprehensive coverage and free accessibility. However, its reliance on open data introduces challenges related to metadata quality, consistency, and error detection, which require ongoing attention to ensure its reliability for academic research.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and standardized metadata, but it faces weaknesses such as limited open access, high costs, and potential biases in coverage across disciplines and regions.
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document typologies and classification methods differ significantly from other providers. This variation affects the distinction between research and non-research texts, which is critical for bibliometric analysis, suggesting WoS may not be as versatile or adaptable as newer, open alternatives like OpenAlex.  
+DOI: 10.5281/ZENODO.13960973 - The paper emphasizes the importance of open data in bibliometric indicators, a domain where WoS, as a closed dataset, falls short. The study introduces methods to detect errors in metadata, underscoring the need for transparency and quality control, areas where WoS’s proprietary nature may limit scrutiny and improvement.  
+Concluding statement: While WoS remains a cornerstone for bibliometric research due to its extensive coverage and standardized metadata, its closed nature, high costs, and potential biases in coverage and classification highlight the need for complementary open-access alternatives to ensure broader accessibility and transparency in scholarly analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by leveraging external knowledge sources and enhancing multi-hop query performance through database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark.  
+DOI: 10.31222/osf.io/smxe5 - While not directly related to RAG, this document highlights the importance of open bibliographic metadata in Crossref, which could serve as a knowledge source for RAG systems by improving data availability and quality.  
+DOI: 10.5281/ZENODO.13960973 - This paper focuses on detecting errors in bibliographic datasets using missing data patterns, which could indirectly benefit RAG by ensuring cleaner and more reliable external knowledge sources.  
+**Concluding Statement:** While the primary contribution to RAG improvement comes from Multi-Meta-RAG (DOI: 10.48550/arXiv.2406.13213), the other documents underscore the importance of high-quality, open metadata in enhancing the reliability and effectiveness of external knowledge sources used in RAG systems.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to variations in metadata availability, classification inconsistencies across databases, and the need for open, high-quality bibliographic data.  
+DOI: 10.31222/osf.io/smxe5 - Crossref’s initiatives to promote open bibliographic metadata have improved the availability of elements like reference lists and ORCIDs over time, but many publishers still need to enhance efforts for full openness, which is crucial for standardized metrics.  
+DOI: 10.5281/ZENODO.13960973 - The quality of open bibliographic datasets remains under-examined, and errors in metadata (e.g., incorrect affiliations) can distort citation metrics, highlighting the need for robust error detection methods.  
+DOI: 10.48550/arXiv.2406.15154 - Differences in publication and document typologies across databases like OpenAlex, Scopus, and Web of Science complicate cross-field comparisons, as research and non-research texts are classified inconsistently.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from sociocultural tensions, resource constraints, and standardization challenges, impacting the consistency and completeness of data used for citation metrics.  
+**Concluding Statement:** Addressing these challenges requires improved metadata openness, standardized classification systems, and rigorous quality control across bibliographic datasets to ensure fair and accurate citation metric normalization across fields.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability and consistency, leveraging LLM-extracted metadata for database filtering, and examining sociocultural influences on metadata quality.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which helps identify incorrectly assigned articles and can be extended to other data types.  
+DOI: 10.31222/osf.io/smxe5 - The paper highlights the improving availability of metadata elements in Crossref over time but notes that many publishers still need to enhance efforts for full openness, emphasizing the need for error detection and correction in bibliographic datasets.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG is introduced as a method to improve retrieval-augmented generation (RAG) for multi-hop queries by using LLM-extracted metadata for database filtering, indirectly aiding in error correction by ensuring relevant document selection.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues by examining sociocultural influences, resource constraints, and standardization tensions, providing insights into how metadata inconsistencies can arise and be addressed.  
+**Concluding Statement:** These methods collectively contribute to improving the accuracy and reliability of bibliographic datasets by addressing errors through pattern analysis, metadata availability assessments, advanced filtering techniques, and cultural context considerations.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) is a method that enhances large language models (LLMs) by retrieving relevant information from external knowledge sources to answer queries, with recent advancements focusing on improving multi-hop question performance through database filtering and metadata extraction.
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a novel approach that uses database filtering with LLM-extracted metadata to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark.  
+DOI: 10.48550/arXiv.2406.15154 - This research analyzes publication and document types in major bibliographic databases, highlighting discrepancies in typologies and classifications, which are critical for bibliometric analysis and relevant to RAG's reliance on accurate metadata.  
+DOI: 10.31222/osf.io/smxe5 - The paper discusses initiatives to promote open bibliographic metadata in Crossref, emphasizing the importance of metadata availability for scholarly publications, which is essential for RAG systems to access reliable external knowledge sources.  
+DOI: 10.5281/ZENODO.13960973 - This work presents a method to detect errors in bibliographic datasets using missing data patterns, ensuring data quality, which is crucial for RAG systems that depend on accurate and complete metadata.  
+**Concluding Statement:** While RAG systems leverage external knowledge to enhance LLM capabilities, advancements like Multi-Meta-RAG and improvements in metadata quality and accessibility are vital for addressing challenges in multi-hop queries and ensuring reliable information retrieval.</t>
+  </si>
+  <si>
+    <t>Summary answer: The studies by DOI: 10.31222/osf.io/smxe5 and DOI: 10.5860/crl.86.1.101 specifically examined the role and availability of abstracts in metadata.  
+DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and highlights improvements over time in their openness, particularly for journal articles, while noting the need for further efforts by publishers to achieve full metadata openness.  
+DOI: 10.5860/crl.86.1.101 - This research investigates metadata quality issues, including the role of abstracts, by analyzing how metadata reflects cultural meanings and impacts discovery and access, emphasizing tensions between standardized systems and sociocultural representations.  
+Concluding statement: While other studies in the context touch on metadata quality and bibliographic datasets, only the aforementioned DOIs directly focus on the examination of abstracts within metadata frameworks.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several studies have examined citations across various bibliographic databases, focusing on coverage, accuracy, and the availability of metadata.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the availability of open bibliographic metadata in Crossref, including reference lists, and highlights improvements over time, though it notes that many publishers still need to enhance metadata openness.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, emphasizing differences in classification and the importance of distinguishing research texts for bibliometric analysis.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, which can indirectly improve citation accuracy by ensuring correct affiliations and metadata.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, this study examines the availability and quality of funding metadata, which is critical for tracing citations in funded research.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic analyzes differences in document coverage and citation link completeness, providing insights into the reliability of citation data across platforms.  
+Concluding statement: These studies collectively underscore the variability in citation data across bibliographic databases, highlighting the need for improved metadata availability, accuracy, and standardization to enhance the reliability of bibliometric analyses.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary across databases, which impacts bibliometric research.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses the importance of open bibliographic metadata in Crossref, which aligns with OpenAlex's mission of promoting open access to scholarly metadata. It highlights the need for publishers to improve metadata openness, a principle OpenAlex supports.  
+**Concluding Statement:** OpenAlex is positioned as a vital open-access resource for bibliometric analyses, offering comprehensive coverage of publication and document types while addressing the challenges of metadata openness and standardization in scholarly databases.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, promoting accessibility and quality, though challenges remain in achieving full openness and data accuracy across various metadata elements and datasets.
+DOI: 10.31222/osf.io/smxe5 - Crossref has adopted initiatives to enhance the open availability of bibliographic metadata, focusing on elements like reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information. Analysis shows improvements over time, particularly for journal articles, but many publishers still need to make additional efforts to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect errors in bibliographic datasets, highlighting the need for quality assurance in open data. Applied to affiliation metadata, the method identified incorrectly assigned papers, underscoring the importance of accurate metadata for reliable bibliometric analysis.  
+DOI: 10.48550/arXiv.2406.13213 - While not directly about Crossref, this paper discusses improving retrieval-augmented generation (RAG) for multi-hop queries using LLM-extracted metadata, which could enhance the utilization of metadata from sources like Crossref in complex information retrieval tasks.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across bibliographic databases, including OpenAlex, and highlights discrepancies in classification and coverage. Crossref, as a metadata provider, plays a role in ensuring consistent and comprehensive data for such analyses.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues are examined across cultures, emphasizing the tension between standardized systems and sociocultural representations. Crossref’s role in promoting metadata standards and openness is relevant to addressing these challenges and ensuring metadata reflects diverse cultural contexts.  
+**Concluding Statement:** Crossref’s efforts to promote open bibliographic metadata are pivotal for scholarly communication, but ongoing challenges in data quality, completeness, and standardization require collaborative solutions from publishers, researchers, and metadata providers.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on metadata availability, quality, and cross-database comparisons.  
+DOI: 10.31222/osf.io/smxe5 - This paper assesses the availability of six metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref, highlighting improvements over time but noting the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, applied to affiliation metadata, emphasizing the importance of data quality in open datasets.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, revealing significant differences in typologies and classification methods, particularly focusing on OpenAlex's coverage.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues across cultures, identifying tensions between sociocultural representations and standardized systems, and their impact on individuals and communities.  
+**Concluding Statement:** These studies collectively highlight the importance of evaluating linguistic and metadata coverage in scholarly databases, addressing issues of availability, quality, and cross-database consistency to improve accessibility and reliability in academic research.</t>
+  </si>
+  <si>
+    <t>Summary answer: Several papers address funding metadata, its availability, and analysis in scholarly databases, with a focus on Crossref and open bibliographic metadata initiatives.
+DOI: 10.31222/osf.io/smxe5 - This paper examines the open availability of bibliographic metadata in Crossref, including funding information, and finds that while availability has improved over time, particularly for journal articles, many publishers still need to enhance their efforts to achieve full openness of metadata.
+DOI: 10.5281/ZENODO.13960973 - Although this paper primarily focuses on detecting incorrectly assigned articles using missing data patterns, it highlights the importance of open and accurate metadata, which indirectly relates to the quality and availability of funding metadata in scholarly datasets.
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across various bibliographic databases, including OpenAlex, and discusses the challenges in distinguishing research and non-research texts, which is relevant to the broader context of metadata quality and availability, including funding information.
+DOI: 10.5860/crl.86.1.101 - The paper identifies metadata quality issues across cultures, emphasizing the importance of consistent and complete metadata, which is crucial for the accurate representation and analysis of funding information in scholarly databases.
+Concluding statement: These papers collectively underscore the ongoing efforts and challenges in improving the availability, accuracy, and analysis of funding metadata within scholarly databases, particularly in the context of open bibliographic metadata initiatives.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Two papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications, focusing on improving RAG for multi-hop queries and enhancing document retrieval.
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that improves Retrieval-Augmented Generation (RAG) for multi-hop queries by using database filtering with LLM-extracted metadata. The approach enhances the selection of relevant documents from various sources, significantly improving performance on the MultiHop-RAG benchmark.  
+DOI: 10.31222/osf.io/smxe5 - While this paper primarily discusses the availability of open bibliographic metadata in Crossref, it does not directly address RAG or its applications in large language models.  
+**Concluding Statement:** The provided context includes one paper directly relevant to RAG in large language models, specifically focusing on enhancing RAG for multi-hop queries, while the other papers address unrelated topics such as bibliographic metadata and metadata quality.</t>
+  </si>
+  <si>
+    <t>Crossref plays a pivotal role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing data quality, and supporting interoperability across academic databases.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives that improve the availability of key elements such as reference lists, abstracts, ORCIDs, author affiliations, funding information, and license details, particularly for journal articles, though further efforts from publishers are needed to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method using missing data patterns to detect errors in bibliographic datasets, highlighting the need for quality improvements in open metadata, which aligns with Crossref’s role in fostering open and accurate scholarly data.  
+DOI: 10.48550/arXiv.2406.15154 - This research underscores the variability in publication and document typologies across databases, emphasizing the importance of standardized metadata, a domain where Crossref contributes by providing consistent and open metadata frameworks.  
+DOI: 10.48550/arXiv.2406.13213 - The Multi-Meta-RAG method improves retrieval-augmented generation by leveraging metadata filtering, demonstrating the value of structured metadata, which Crossref helps standardize and disseminate.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues across cultures, highlighting the need for inclusive and consistent metadata practices, an area where Crossref’s open metadata initiatives can play a critical role in addressing cultural and technical disparities.  
+Concluding statement: Crossref’s efforts to standardize, open, and improve bibliographic metadata are essential for enhancing the accessibility, reliability, and interoperability of scholarly research, addressing challenges from data quality to cultural representation in academic ecosystems.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata quality, consistency, and completeness compared to proprietary databases like Web of Science and Scopus.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliometric databases, highlighting its growing importance as a free alternative. It emphasizes OpenAlex's coverage of publication and document types but notes that typologies and classifications can differ significantly between databases, affecting bibliometric analysis.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this paper discusses the open availability of bibliographic metadata in Crossref, a key data source for OpenAlex. It highlights improvements in metadata availability over time but notes that many publishers still fall short of full openness, which may impact OpenAlex's data quality.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, relevant to OpenAlex as it relies on open data. It underscores the need for rigorous quality checks in open datasets, which OpenAlex must address to ensure reliability.  
+**Concluding Statement:** OpenAlex is a valuable resource for bibliometric analysis, particularly due to its open access nature, but its effectiveness is contingent on addressing metadata quality issues and ensuring consistent classification standards.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in its comprehensive coverage of high-impact journals and robust citation indexing, but it faces weaknesses such as limited open access, high costs, and potential biases in coverage across disciplines and regions.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document typologies and classification methods differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its focus on high-impact journals but may exclude certain document types or disciplines, limiting its comprehensiveness.  
+DOI: 10.5281/ZENODO.13960973 - The paper emphasizes the need for open bibliometric data, a weakness of WoS, which operates as a closed dataset. This limits transparency and accessibility, particularly for researchers advocating for open science practices, as highlighted by initiatives like DORA and CoARA.  
+Concluding statement: While WoS remains a cornerstone for bibliometric analysis due to its extensive coverage of high-impact literature and reliable citation data, its closed nature, high costs, and potential biases in coverage underscore the need for complementary open-access alternatives like OpenAlex.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by leveraging external knowledge sources and LLM-extracted metadata to enhance document selection and reasoning, particularly for multi-hop queries.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on benchmarks.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about RAG, this document highlights the importance of open bibliographic metadata in Crossref, which could serve as a knowledge source for RAG systems by improving data availability and quality.  
+DOI: 10.5281/ZENODO.13960973 - This paper focuses on detecting errors in bibliographic datasets using missing data patterns, indirectly supporting RAG by ensuring cleaner, more reliable data for retrieval systems.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis of bibliographic databases like OpenAlex and Scopus underscores the variability in document classification, which RAG systems must account for when retrieving information from diverse sources.  
+**Concluding Statement:** While the primary support for RAG's improvement comes from Multi-Meta-RAG (DOI: 10.48550/arXiv.2406.13213), other documents indirectly contribute by emphasizing the need for high-quality, open metadata and standardized data classification, which are essential for effective retrieval-augmented systems.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to variations in metadata availability, classification inconsistencies across databases, and the need for open, high-quality bibliographic data.  
+DOI: 10.31222/osf.io/smxe5 - Crossref’s initiatives to promote open bibliographic metadata have improved the availability of elements like reference lists and ORCIDs over time, but many publishers still need to enhance efforts for full openness, which is crucial for standardized citation metrics.  
+DOI: 10.5281/ZENODO.13960973 - The quality of open bibliographic datasets remains under-examined, with errors like incorrect affiliations detected using missing data patterns, highlighting the need for robust methods to ensure data accuracy in citation normalization.  
+DOI: 10.48550/arXiv.2406.15154 - Differences in publication and document typologies across databases like OpenAlex, Scopus, and Web of Science complicate the distinction between research and non-research texts, affecting bibliometric analyses and normalization efforts.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from sociocultural tensions, resource constraints, and standardization challenges, impacting how citation metrics are interpreted and normalized across diverse fields.  
+**Concluding Statement:** The challenges in normalizing citation metrics stem from incomplete metadata, inconsistent classification systems, and the need for higher-quality open data, underscoring the importance of collaborative efforts to standardize and improve bibliographic datasets across scientific disciplines.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability and consistency, leveraging LLM-extracted metadata for database filtering, and examining sociocultural influences on metadata quality.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which helps identify incorrectly assigned articles and can be extended to other data types.  
+DOI: 10.31222/osf.io/smxe5 - The paper highlights initiatives to improve the openness of bibliographic metadata in Crossref, showing improvements over time but also identifying the need for further efforts by publishers to ensure full metadata availability.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across major bibliographic databases, revealing significant differences in typologies and classification methods, which can impact bibliometric analysis.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces Multi-Meta-RAG, a method using LLM-extracted metadata and database filtering to improve retrieval-augmented generation for multi-hop queries, enhancing the accuracy of document selection.  
+DOI: 10.5860/crl.86.1.101 - This work explores metadata quality issues across cultures, identifying tensions between standardized systems and sociocultural representations, and their impact on metadata consistency and completeness.  
+**Concluding Statement:** These methods collectively address error detection and correction in bibliographic datasets by focusing on data patterns, metadata availability, cross-database inconsistencies, advanced retrieval techniques, and cultural influences, offering diverse approaches to improve data quality and reliability.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) is a method that enhances large language models (LLMs) by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces Multi-Meta-RAG, a method that uses database filtering with LLM-extracted metadata to improve RAG's selection of relevant documents for multi-hop queries, significantly enhancing performance on benchmarks.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about RAG, this document highlights the importance of open bibliographic metadata, which is crucial for external knowledge sources used in RAG systems.  
+DOI: 10.5281/ZENODO.13960973 - This paper presents a method to detect errors in bibliographic datasets using missing data patterns, indirectly supporting the need for accurate data in RAG systems.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis of bibliographic databases underscores the variability in document classification, which impacts the quality of external knowledge sources used in RAG.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues, emphasizing the importance of consistent and accurate metadata for effective retrieval in RAG systems.  
+**Concluding Statement:** While the primary focus on RAG is provided by DOI: 10.48550/arXiv.2406.13213, the other documents indirectly support the importance of high-quality, open, and accurately classified metadata, which are essential components for the effectiveness of RAG systems.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** The study by DOI: 10.31222/osf.io/smxe5 explicitly examines the availability of abstracts as a metadata element in Crossref, while the other studies do not directly focus on abstracts in metadata.  
+DOI: 10.31222/osf.io/smxe5 - This study provides an overview of the availability of six metadata elements in Crossref, including abstracts, and analyzes their improvement over time, particularly for journal articles. It highlights the need for publishers to enhance the openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, focusing on affiliation metadata rather than abstracts.  
+DOI: 10.5860/crl.86.1.101 - This study explores metadata quality issues across cultures, emphasizing sociocultural representations and consistency but does not specifically address abstracts.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across bibliographic databases, including OpenAlex, but does not focus on abstracts in metadata.  
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces Multi-Meta-RAG, a method to improve retrieval-augmented generation using LLM-extracted metadata, but does not examine abstracts specifically.  
+**Concluding statement:** Only the study by DOI: 10.31222/osf.io/smxe5 directly examines abstracts as a metadata element, while the other studies focus on different aspects of metadata quality, error detection, and database comparisons.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several studies have examined citations, focusing on the availability, accuracy, and completeness of citation data across various bibliographic databases.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of bibliographic metadata in Crossref, including reference lists, and highlights improvements over time while noting the need for further efforts by publishers to ensure full openness.  
+DOI: 10.48550/arXiv.2406.15154 - The research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, emphasizing differences in classification and the implications for bibliometric analysis.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, which can be applied to improve data quality for affiliation and other metadata.  
+DOI: 10.1162/qss_a_00212 - Focusing on funding data in Crossref, Scopus, and Web of Science, the study identifies limited coverage and quality issues, particularly in Scopus, and provides recommendations for improvement.  
+DOI: 10.1162/qss_a_00112 - A large-scale comparison of Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic examines differences in document coverage and citation link completeness, highlighting the strengths and weaknesses of each source.  
+**Concluding statement:** These studies collectively underscore the importance of accurate and comprehensive citation data for bibliometric analysis, while also identifying gaps and challenges in current bibliographic databases.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights its growing significance as a free resource for bibliometric analyses. It emphasizes OpenAlex's coverage and analysis of publication and document types, noting that typologies and classifications can vary across databases.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses initiatives to promote open bibliographic metadata in Crossref, which aligns with OpenAlex's mission of open access. It underscores the importance of metadata availability, a key aspect of OpenAlex's functionality.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, which is relevant to OpenAlex's goal of maintaining high-quality open data. It highlights the need for rigorous quality checks in open datasets like OpenAlex.  
+**Concluding Statement:** OpenAlex is positioned as a vital open-access resource for bibliometric analyses, offering comprehensive coverage and addressing challenges in metadata quality and classification, as supported by comparative studies and related research on open bibliographic data.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, promoting initiatives to enhance metadata availability, though challenges remain in achieving full openness and quality across datasets.
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives focusing on six key elements: reference lists, abstracts, ORCIDs, author affiliations, funding information, and license information. Analysis shows improved availability over time, particularly for journal articles, but many publishers still need to enhance efforts for full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect errors in bibliographic datasets, exemplified by identifying incorrectly affiliated papers in ETH Zurich’s metadata. The method is not limited to affiliation data and can improve dataset quality for both providers and users.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG is a novel approach that enhances retrieval-augmented generation (RAG) for multi-hop queries by using LLM-extracted metadata for database filtering, significantly improving performance on benchmarks.  
+DOI: 10.48550/arXiv.2406.15154 - This analysis compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, highlighting typological differences and classification inconsistencies, with a focus on OpenAlex as a free alternative for bibliometric analyses.  
+DOI: 10.5860/crl.86.1.101 - The study examines metadata quality issues across cultures, identifying tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on individuals and communities.  
+**Concluding Statement:** Crossref plays a pivotal role in advancing open bibliographic metadata, yet ongoing efforts are needed to address challenges in data openness, quality, and consistency across scholarly datasets.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on metadata availability, quality, and cross-database comparisons.  
+DOI: 10.31222/osf.io/smxe5 - This paper assesses the availability of six metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref, highlighting improvements over time but noting the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, applied to affiliation metadata, emphasizing the importance of data quality in open datasets.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, revealing significant differences in typologies and classification methods, particularly focusing on OpenAlex’s coverage.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues across cultures, examining how sociocultural representations and resource constraints impact metadata consistency and completeness.  
+**Concluding statement:** These studies collectively underscore the importance of evaluating linguistic and metadata coverage in scholarly databases to ensure accuracy, openness, and cultural inclusivity, while also highlighting the need for standardized practices across platforms.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, with a focus on Crossref's initiatives, metadata quality, and the use of open data for bibliometric analysis.
+DOI: 10.31222/osf.io/smxe5 - This paper examines Crossref's role in promoting open bibliographic metadata, including funding information, and highlights improvements in availability over time, though noting the need for further efforts by publishers to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the importance of open data quality for bibliometric indicators, which indirectly relates to funding metadata accuracy.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across major bibliographic databases, including OpenAlex, and discusses the variability in classification, which impacts the analysis of funding metadata across platforms.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues, including funding information, across cultures, highlighting tensions between standardization and sociocultural representations in metadata practices.  
+DOI: 10.48550/arXiv.2406.13213 - While focusing on improving retrieval-augmented generation (RAG) for multi-hop queries, this study uses LLM-extracted metadata, which could include funding data, to enhance database filtering and relevance.  
+**Concluding Statement:** These papers collectively underscore the importance of funding metadata in scholarly databases, addressing its availability, quality, and analysis, while also highlighting the need for standardized practices and open data initiatives to improve its utility in bibliometric research.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Two papers discuss the use of Retrieval-Augmented Generation (RAG) in large language models or related applications, specifically focusing on improving RAG for multi-hop queries and enhancing document retrieval.
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces **Multi-Meta-RAG**, a method that improves Retrieval-Augmented Generation (RAG) for multi-hop queries by using database filtering with LLM-extracted metadata. The approach enhances the selection of relevant documents from various sources, significantly improving performance on the MultiHop-RAG benchmark.  
+DOI: 10.31222/osf.io/smxe5 - While this paper primarily discusses the availability of open bibliographic metadata in Crossref, it does not directly address RAG or its applications in large language models.  
+**Concluding Statement:** The provided context includes one paper directly relevant to RAG in large language models, focusing on enhancing multi-hop query performance, while the other papers address bibliographic metadata and related topics without discussing RAG.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref plays a crucial role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing data quality, and supporting interoperability across academic databases.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives that improve the availability of key elements such as reference lists, abstracts, ORCIDs, author affiliations, funding information, and license details. While progress has been made, particularly for journal articles, many publishers still need to enhance their efforts to achieve full metadata openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets using missing data patterns, addressing the need for open and high-quality metadata as emphasized by the DORA declaration and CoARA. The method, applied to affiliation metadata, identifies incorrectly assigned articles and can be extended to other data types, benefiting both data providers and users.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis highlights disparities in publication and document typologies across major bibliographic databases, including OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar. OpenAlex emerges as a critical free alternative for bibliometric analyses, emphasizing the need for standardized metadata practices.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG, a novel method, enhances retrieval-augmented generation (RAG) for multi-hop queries by using LLM-extracted metadata for database filtering, improving the selection of relevant documents from diverse sources.  
+DOI: 10.5860/crl.86.1.101 - This research explores metadata quality issues, identifying tensions between sociocultural representations, resource constraints, and standardized systems. It underscores the impact of metadata consistency and completeness on individuals and communities, highlighting the need for culturally sensitive metadata practices.  
+**Concluding Statement:** Crossref’s efforts to standardize and open bibliographic metadata are pivotal for improving data quality, accessibility, and interoperability in scholarly research, though ongoing challenges in publisher compliance and metadata consistency require continued attention.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata quality, consistency, and completeness compared to proprietary databases like Web of Science and Scopus.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliometric databases, highlighting its growing importance as a free alternative. It emphasizes OpenAlex's coverage of publication and document types but notes that typologies and classifications can differ significantly across databases, affecting bibliometric analyses.  
+DOI: 10.5860/crl.86.1.101 - This research identifies metadata quality issues across cultures, underscoring the challenges in maintaining consistent and complete metadata. While not directly focused on OpenAlex, it provides context for understanding potential limitations in metadata quality within open databases like OpenAlex.  
+DOI: 10.31222/osf.io/smxe5 - This paper discusses the availability of open bibliographic metadata in Crossref, showing improvements over time but noting that full openness is not yet achieved. This indirectly highlights the challenges OpenAlex might face in ensuring comprehensive and high-quality metadata.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for quality checks in open datasets. It suggests that OpenAlex, as an open database, may require similar scrutiny to ensure data accuracy.  
+**Concluding Statement:** OpenAlex offers a valuable open-access alternative for bibliometric analysis, but its effectiveness is contingent on addressing metadata quality, consistency, and completeness issues, which remain ongoing challenges in open bibliographic databases.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in comprehensive coverage of high-impact journals and robust citation indexing, but it faces weaknesses such as limited open access, high costs, and potential biases in coverage across disciplines and regions.  
+DOI: 10.48550/arXiv.2406.15154 - A comparative analysis of bibliographic databases, including WoS, highlights that WoS provides extensive coverage of high-impact journals and robust citation data, making it a reliable source for bibliometric analysis. However, the study also notes that WoS’s typologies and classification methods differ significantly from other databases like OpenAlex, which may limit its flexibility and inclusivity compared to emerging open-access alternatives.  
+DOI: 10.5281/ZENODO.13960973 - This paper emphasizes the importance of open data in bibliometric analysis and critiques closed datasets like WoS for their lack of transparency and accessibility. The study suggests that WoS’s proprietary nature hinders efforts to detect errors or biases in metadata, which are more easily addressed in open datasets.  
+Concluding statement: While WoS remains a cornerstone of bibliometric research due to its comprehensive coverage and citation accuracy, its limitations in openness, cost, and potential biases underscore the growing need for complementary or alternative open-access databases in academic research.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by leveraging external knowledge sources and enhancing multi-hop query performance through database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces Multi-Meta-RAG, a method that uses database filtering with LLM-extracted metadata to improve RAG’s selection of relevant documents for multi-hop queries, significantly enhancing performance on the MultiHop-RAG benchmark.  
+DOI: 10.31222/osf.io/smxe5 - While not directly related to RAG, this document highlights the importance of open bibliographic metadata in Crossref, which could serve as a knowledge source for RAG systems by improving data availability and quality.  
+**Concluding Statement:** The integration of RAG with advanced techniques like Multi-Meta-RAG and high-quality, open metadata sources enhances its ability to handle complex queries and retrieve accurate information, thereby improving overall system performance.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, metadata availability, and database classification standards, which hinder consistent bibliometric analysis.
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata elements in Crossref, particularly for journal articles, but notes that many publishers still need to enhance efforts for full openness, which is crucial for standardized citation metrics.  
+DOI: 10.5281/ZENODO.13960973 - The paper introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for high-quality open data to support reliable bibliometric indicators, a key aspect of normalization.  
+DOI: 10.48550/arXiv.2406.15154 - This research reveals significant differences in publication and document typologies across major bibliographic databases, complicating the standardization of citation metrics due to inconsistent classification methods.  
+DOI: 10.5860/crl.86.1.101 - The study identifies metadata quality issues arising from sociocultural representations and resource constraints, underscoring how these variations impact the consistency and completeness of metadata, essential for cross-field normalization.  
+**Concluding Statement:** The challenges in normalizing citation metrics stem from disparities in metadata availability, database classification practices, and cultural influences on data quality, all of which require coordinated efforts to standardize bibliometric analysis across disciplines.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability and consistency, leveraging LLM-extracted metadata for database filtering, and examining sociocultural influences on metadata quality.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which helps identify incorrectly assigned articles and can be extended to other data types.  
+DOI: 10.31222/osf.io/smxe5 - The research highlights the improving availability of metadata elements in Crossref over time but emphasizes the need for publishers to enhance full openness and completeness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.13213 - Multi-Meta-RAG is introduced as a method to improve retrieval-augmented generation (RAG) for multi-hop queries by using LLM-extracted metadata for database filtering, enhancing the selection of relevant documents.  
+DOI: 10.5860/crl.86.1.101 - This paper explores metadata quality issues across cultures, identifying tensions between sociocultural representations, resource constraints, and standardized systems, and their impact on metadata consistency and completeness.  
+**Concluding Statement:** These methods collectively address error detection and correction in bibliographic datasets by focusing on data patterns, metadata availability, advanced filtering techniques, and cultural influences, thereby improving data quality and usability.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) is a method that enhances large language models (LLMs) by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG’s ability to handle multi-hop queries. Traditional RAG struggles with multi-hop questions, but Multi-Meta-RAG significantly enhances performance on benchmarks by selecting relevant documents from diverse sources.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about RAG, this document highlights the importance of open bibliographic metadata in Crossref, emphasizing the need for complete and accessible metadata elements like abstracts and funding information, which could indirectly support RAG systems by improving data quality.  
+DOI: 10.5281/ZENODO.13960973 - This paper focuses on detecting errors in bibliographic datasets using missing data patterns, which is relevant to RAG as high-quality, error-free datasets are essential for accurate information retrieval and generation.  
+**Concluding Statement:** RAG’s effectiveness relies on both advanced retrieval techniques, as demonstrated by Multi-Meta-RAG, and the quality of underlying metadata, underscored by studies on open bibliographic data and error detection in datasets. Together, these elements ensure RAG systems can reliably access and utilize external knowledge sources.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** The study by DOI: 10.31222/osf.io/smxe5 explicitly examines the availability of abstracts as a metadata element in Crossref, while the other studies focus on broader metadata quality, error detection, and database comparisons without specific focus on abstracts.  
+DOI: 10.31222/osf.io/smxe5 - This study evaluates the open availability of six metadata elements in Crossref, including abstracts, and finds that their availability has improved over time, particularly for journal articles, though further efforts are needed for full openness.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, focusing on affiliation metadata rather than abstracts.  
+DOI: 10.5860/crl.86.1.101 - This study identifies metadata quality issues across cultures, emphasizing sociocultural representations and consistency but does not specifically address abstracts.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across bibliographic databases, highlighting differences in classification but not focusing on abstracts.  
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces Multi-Meta-RAG, a method to improve retrieval-augmented generation using LLM-extracted metadata, without specific mention of abstracts.  
+**Concluding Statement:** Only the study by DOI: 10.31222/osf.io/smxe5 directly examines abstracts as part of metadata analysis, while the others address broader metadata issues or database comparisons.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several studies have examined citations, focusing on citation links, metadata availability, and data source comparisons.  
+DOI: 10.1162/qss_a_00112 - This study presents a large-scale comparison of five bibliographic data sources (Scopus, Web of Science, Dimensions, Crossref, and Microsoft Academic), analyzing differences in document coverage and the completeness and accuracy of citation links, highlighting the strengths and weaknesses of each source.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, noting variations in typologies and classification methods that impact bibliometric analysis, including citation-related studies.  
+DOI: 10.31222/osf.io/smxe5 - The study evaluates the availability of bibliographic metadata in Crossref, including reference lists, and highlights improvements over time, though it notes the need for further efforts to ensure full openness of metadata for citation analysis.  
+**Concluding statement:** These studies collectively contribute to understanding citation practices and data source reliability, emphasizing the importance of open, accurate, and comprehensive bibliographic metadata for effective citation analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is an increasingly important open-access bibliographic database that offers a free alternative to proprietary providers like Web of Science and Scopus, with a focus on comprehensive coverage and analysis of publication and document types.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with other bibliographic databases (Web of Science, Scopus, PubMed, Semantic Scholar) and highlights that OpenAlex is gaining significance as a free alternative for bibliometric analyses. It emphasizes the differences in publication and document type classifications across databases and focuses on OpenAlex's coverage and analysis of these types.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about OpenAlex, this document discusses initiatives to promote open bibliographic metadata in Crossref, which is relevant to OpenAlex's mission of open access and metadata availability.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, which aligns with OpenAlex's goal of improving data quality in open datasets.  
+DOI: 10.48550/arXiv.2406.13213 - Although focused on improving retrieval-augmented generation (RAG) for multi-hop queries, this study indirectly supports OpenAlex's role in providing accessible, high-quality metadata for scholarly research.  
+**Concluding Statement:** OpenAlex is positioned as a key open-access resource for bibliometric analyses, offering comprehensive coverage and addressing challenges in metadata quality and accessibility, as supported by related studies on open metadata initiatives and data quality improvements.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Crossref is a key provider of open bibliographic metadata for scholarly publications, promoting accessibility and quality, though challenges remain in achieving full openness and addressing metadata errors across various datasets and platforms.
+DOI: 10.31222/osf.io/smxe5 - Crossref has adopted initiatives to enhance the open availability of bibliographic metadata, with improvements observed over time in elements like reference lists, abstracts, and ORCIDs, particularly for journal articles. However, many publishers still need to make additional efforts to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method using missing data patterns to detect errors in bibliographic datasets, exemplified by identifying incorrectly affiliated papers in ETH Zurich’s metadata. The method is not limited to affiliation data and could benefit both data providers and users by enabling corrections.  
+DOI: 10.48550/arXiv.2406.13213 - While not directly about Crossref, this paper introduces Multi-Meta-RAG, a method to improve retrieval-augmented generation (RAG) for multi-hop queries using LLM-extracted metadata, which could enhance the utilization of open metadata sources like Crossref in complex information retrieval tasks.  
+DOI: 10.48550/arXiv.2406.15154 - This study compares publication and document types across major bibliographic databases, including OpenAlex, highlighting differences in typologies and classification methods. OpenAlex is increasingly important as a free alternative for bibliometric analyses, underscoring the need for standardized metadata practices.  
+DOI: 10.5860/crl.86.1.101 - Metadata quality issues arise from tensions between sociocultural representations, resource constraints, and standardized systems. The study identifies how metadata practices can reflect or neglect cultural meanings, impacting individuals and communities, which is relevant to Crossref’s role in standardizing and disseminating metadata.  
+**Concluding Statement:** Crossref plays a pivotal role in advancing open bibliographic metadata, but ongoing efforts are needed to address completeness, accuracy, and cultural inclusivity in metadata practices across scholarly publishing ecosystems.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Several papers evaluate linguistic coverage and language-related metadata in scholarly databases, focusing on metadata availability, quality, and cross-database comparisons.  
+DOI: 10.31222/osf.io/smxe5 - This paper assesses the availability of six metadata elements (e.g., reference lists, abstracts, ORCIDs) in Crossref, highlighting improvements over time but noting the need for publishers to enhance full openness of bibliographic metadata.  
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, applied to affiliation metadata, underscoring the importance of data quality in scholarly metadata.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across OpenAlex, Web of Science, Scopus, PubMed, and Semantic Scholar, revealing significant differences in typologies and classification methods, with a focus on OpenAlex's coverage.  
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues across cultures, examining how sociocultural representations and resource constraints impact metadata consistency and completeness.  
+**Concluding Statement:** These studies collectively emphasize the importance of evaluating linguistic and metadata coverage in scholarly databases to ensure accuracy, openness, and cultural inclusivity, while also highlighting the need for standardized practices across platforms.</t>
+  </si>
+  <si>
+    <t>**Summary answer:** Several papers address funding metadata, its availability, and analysis in scholarly databases, with a focus on Crossref's initiatives, metadata quality, and the use of open data for bibliometric indicators.
+DOI: 10.31222/osf.io/smxe5 - This paper examines Crossref's efforts to promote open bibliographic metadata, including funding information, and finds that while availability has improved over time, particularly for journal articles, many publishers still need to enhance their efforts to achieve full openness.
+DOI: 10.5281/ZENODO.13960973 - The study introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for open data quality in line with the DORA declaration and CoARA, which indirectly supports the importance of accurate funding metadata.
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across major bibliographic databases, highlighting discrepancies that affect bibliometric analysis, which is relevant to understanding the context and availability of funding metadata.
+DOI: 10.5860/crl.86.1.101 - The paper explores metadata quality issues, including cultural and resource constraints, which are crucial for ensuring accurate and comprehensive funding metadata in scholarly databases.
+**Concluding statement:** These papers collectively underscore the importance of funding metadata in scholarly databases, highlighting both progress and challenges in its availability, accuracy, and analysis, while emphasizing the need for continued efforts to improve metadata openness and quality.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** The paper "Multi-Meta-RAG: Improving RAG for Multi-Hop Queries using Database Filtering with LLM-Extracted Metadata" (DOI: 10.48550/arXiv.2406.13213) discusses the use of Retrieval-Augmented Generation (RAG) in large language models, specifically addressing its application in multi-hop queries.  
+DOI: 10.48550/arXiv.2406.13213 - This paper introduces Multi-Meta-RAG, a method that enhances RAG for multi-hop queries by using database filtering with LLM-extracted metadata. It addresses the limitations of traditional RAG in handling complex, multi-step questions and demonstrates significant improvements on the MultiHop-RAG benchmark.  
+Concluding statement: While only one paper in the provided context directly discusses RAG in large language models, it offers a novel approach to improving RAG's performance in multi-hop query scenarios, highlighting its relevance in advancing LLM applications.</t>
+  </si>
+  <si>
+    <t>Crossref plays a pivotal role in the scholarly research ecosystem by promoting the open availability of bibliographic metadata, enhancing data quality, and supporting interoperability across various academic platforms.  
+DOI: 10.31222/osf.io/smxe5 - Crossref promotes open bibliographic metadata through initiatives that improve the availability of key elements such as reference lists, abstracts, ORCIDs, author affiliations, funding information, and license details. While progress has been made, particularly for journal articles, many publishers still need to enhance their efforts to achieve full openness.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets using missing data patterns, highlighting the need for quality assurance in open metadata. The method, applied to affiliation metadata, identifies misassigned papers and underscores the importance of accurate data for reliable bibliometric analysis.  
+DOI: 10.48550/arXiv.2406.15154 - The analysis of publication and document types across databases, including OpenAlex, reveals significant variations in typologies and classification methods. Crossref’s role in standardizing metadata is crucial for improving consistency and interoperability in scholarly databases.  
+DOI: 10.48550/arXiv.2406.13213 - While not directly about Crossref, this study on Multi-Meta-RAG demonstrates the importance of metadata in enhancing information retrieval systems, which aligns with Crossref’s mission to facilitate access to scholarly content.  
+DOI: 10.5860/crl.86.1.101 - This research highlights metadata quality issues, emphasizing the cultural and contextual challenges in metadata creation. Crossref’s efforts to standardize and improve metadata quality are essential for addressing these challenges and ensuring equitable access to scholarly information.  
+In conclusion, Crossref is a critical facilitator of open, high-quality, and interoperable bibliographic metadata, supporting the broader goals of transparency, accessibility, and reliability in scholarly research.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** OpenAlex is a free and increasingly important bibliometric database offering comprehensive coverage of publication and document types, but it faces limitations in metadata quality, consistency, and the distinction between research and non-research texts compared to proprietary databases.
+DOI: 10.48550/arXiv.2406.15154 - This study compares OpenAlex with Scopus, Web of Science, Semantic Scholar, and PubMed, highlighting that OpenAlex’s typologies and classification methods differ significantly from proprietary databases, which can affect bibliometric analysis. OpenAlex is praised for its free access and growing importance but lacks the standardized metadata quality of established providers.  
+DOI: 10.5860/crl.86.1.101 - This paper emphasizes metadata quality issues across databases, noting that sociocultural representations, resource constraints, and standardization challenges impact metadata consistency and completeness. While not specific to OpenAlex, these issues are relevant to its open metadata ecosystem.  
+DOI: 10.31222/osf.io/smxe5 - This study focuses on Crossref’s metadata availability, showing improvements over time but noting that full openness remains a challenge. OpenAlex, as an open alternative, may face similar limitations in metadata completeness compared to closed systems.  
+DOI: 10.5281/ZENODO.13960973 - This paper introduces a method to detect errors in bibliographic datasets using missing data patterns, underscoring the need for quality checks in open datasets like OpenAlex, which may contain inaccuracies in affiliation or other metadata.  
+**Concluding Statement:** OpenAlex’s key features include its free access and comprehensive coverage, but its limitations lie in metadata quality, consistency, and classification differences compared to proprietary databases, necessitating careful validation for bibliometric analysis.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Web of Science (WoS) is a well-established bibliometric database with strengths in its comprehensive coverage of high-impact journals and standardized metadata, but it faces weaknesses such as limited open access, high costs, and potential biases in coverage.
+DOI: 10.48550/arXiv.2406.15154 - This study compares WoS with other databases like OpenAlex, Scopus, and PubMed, highlighting that WoS’s document typologies and classification methods differ significantly from other providers, which can affect bibliometric analysis. WoS is noted for its focus on high-impact journals but may exclude certain document types or disciplines, limiting its comprehensiveness.  
+DOI: 10.5281/ZENODO.13960973 - The paper emphasizes the importance of open data in bibliometric analysis, a domain where WoS falls short due to its proprietary nature. The closed nature of WoS metadata limits transparency and the ability to detect errors or biases in its dataset, which is a significant weakness compared to open alternatives like OpenAlex.  
+Concluding statement: While WoS remains a valuable resource for its extensive coverage of high-impact literature and standardized metadata, its limitations in openness, cost, and potential biases in coverage underscore the need for complementary or alternative databases, particularly in the era of open science.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** RAG (Retrieval-Augmented Generation) improves question answering and information retrieval systems by leveraging external knowledge sources and LLM-extracted metadata to enhance document selection and reasoning, particularly for multi-hop queries.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces **Multi-Meta-RAG**, a method that uses database filtering with LLM-extracted metadata to improve RAG's performance in answering multi-hop questions. By selecting relevant documents from diverse sources, Multi-Meta-RAG significantly enhances results on the MultiHop-RAG benchmark, addressing traditional RAG's limitations in complex queries.  
+DOI: 10.31222/osf.io/smxe5 - This paper highlights the importance of open bibliographic metadata in Crossref, emphasizing the availability of elements like reference lists, abstracts, and ORCIDs. Improved metadata accessibility enhances the quality of external knowledge sources, indirectly supporting RAG systems by providing richer, more reliable data for retrieval.  
+**Concluding Statement:** While Multi-Meta-RAG directly advances RAG's capabilities for complex queries, the availability of open and high-quality bibliographic metadata, as discussed in the Crossref study, is crucial for enhancing the knowledge sources RAG relies on, collectively improving information retrieval and question answering systems.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Normalizing citation metrics across scientific fields is challenging due to differences in publication practices, metadata availability, data quality, and classification standards across databases and disciplines.  
+DOI: 10.31222/osf.io/smxe5 - This study highlights the improving availability of bibliographic metadata in Crossref, particularly for journal articles, but notes that many publishers still need to enhance openness and completeness, which affects the standardization of citation metrics.  
+DOI: 10.5281/ZENODO.13960973 - The paper introduces a method to detect errors in bibliographic datasets using missing data patterns, emphasizing the need for high-quality open data to support reliable bibliometric indicators, a critical aspect for normalization across fields.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across major bibliographic databases, revealing significant differences in typologies and classification methods, which complicates the standardization of citation metrics.  
+DOI: 10.5860/crl.86.1.101 - The study identifies metadata quality issues stemming from sociocultural representations, resource constraints, and standardized systems, underscoring the challenges in creating consistent metadata practices across diverse scientific fields.  
+**Concluding Statement:** The challenges in normalizing citation metrics across scientific fields are multifaceted, involving disparities in metadata availability, data quality, classification standards, and cultural contexts, all of which hinder the development of universally applicable bibliometric indicators.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Methods to detect and correct errors in bibliographic datasets include using missing data patterns, analyzing metadata availability and consistency, leveraging LLM-extracted metadata for database filtering, and examining sociocultural influences on metadata quality.  
+DOI: 10.5281/ZENODO.13960973 - This study introduces a method to detect errors in bibliographic datasets by analyzing missing data patterns, specifically applied to affiliation metadata, which helps identify incorrectly assigned articles and can be extended to other data types.  
+DOI: 10.31222/osf.io/smxe5 - The paper highlights the improving availability of metadata elements in Crossref over time but notes that many publishers still need to enhance the full openness and completeness of bibliographic metadata.  
+DOI: 10.48550/arXiv.2406.15154 - This research compares publication and document types across major bibliographic databases, revealing significant differences in classification and typologies, which can impact bibliometric analysis and error detection.  
+DOI: 10.48550/arXiv.2406.13213 - The Multi-Meta-RAG method uses LLM-extracted metadata and database filtering to improve the retrieval of relevant documents for multi-hop queries, indirectly aiding in error correction by enhancing data accuracy.  
+DOI: 10.5860/crl.86.1.101 - This study explores how sociocultural factors influence metadata quality, consistency, and completeness, identifying issues arising from tensions between standardized systems and cultural representations.  
+**Concluding Statement:** These methods collectively address error detection and correction in bibliographic datasets by focusing on data patterns, metadata completeness, database inconsistencies, advanced retrieval techniques, and sociocultural influences, offering a multifaceted approach to improving data quality.</t>
+  </si>
+  <si>
+    <t>**Summary Answer:** Retrieval-Augmented Generation (RAG) is a method that enhances large language models (LLMs) by retrieving relevant information from external knowledge sources to answer queries, particularly improving performance on multi-hop questions through techniques like database filtering with LLM-extracted metadata.  
+DOI: 10.48550/arXiv.2406.13213 - The study introduces Multi-Meta-RAG, a method that uses database filtering with LLM-extracted metadata to improve RAG's performance on multi-hop queries, significantly enhancing results on the MultiHop-RAG benchmark.  
+DOI: 10.31222/osf.io/smxe5 - While not directly about RAG, this document highlights the importance of open bibliographic metadata, which is crucial for the external knowledge sources RAG relies on, emphasizing the need for improved metadata availability and openness.  
+DOI: 10.5281/ZENODO.13960973 - This paper presents a method to detect errors in bibliographic datasets using missing data patterns, which could indirectly benefit RAG by improving the quality of external knowledge sources.  
+**Concluding Statement:** While the primary document (DOI: 10.48550/arXiv.2406.13213) directly addresses RAG's functionality and improvements, the other documents underscore the importance of high-quality, open metadata and error detection in bibliographic datasets, which are foundational for RAG's effectiveness.</t>
   </si>
   <si>
     <t>Answer relevance</t>
@@ -967,18 +979,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="40" style="3" customWidth="1"/>
-    <col min="3" max="3" width="92.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.1640625" customWidth="1"/>
+    <col min="3" max="3" width="142.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -988,22 +1000,22 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1014,62 +1026,62 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1080,227 +1092,227 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="304" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="335" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="320" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="176" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="335" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="208" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="365" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1311,117 +1323,117 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="335" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="335" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" t="s">
         <v>22</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="365" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" t="s">
         <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -1432,326 +1444,326 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" t="s">
         <v>2</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" t="s">
         <v>6</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="335" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="288" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="320" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="160" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" t="s">
         <v>22</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="365" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>24</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="304" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="240" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>2</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" ht="176" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>4</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="288" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>6</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="335" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="128" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>14</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="288" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="272" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="288" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>18</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>20</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="320" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" ht="208" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="335" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="224" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="256" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>26</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="350" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="192" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="3" t="s">

--- a/part_3_cohere/analysis/Round_4_scibert/dense_answer_relevance_results_multi_lang.xlsx
+++ b/part_3_cohere/analysis/Round_4_scibert/dense_answer_relevance_results_multi_lang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/PhD/Research_proposal/Part_3/part_3_cohere/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/part_3_cohere/analysis/Round_4_scibert/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F958539-AF85-694F-AAF3-3B91DEA72752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7653BD76-CFF8-514B-9AF1-52693CBA0D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30640" yWindow="500" windowWidth="34860" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw data" sheetId="1" r:id="rId1"/>
@@ -980,7 +980,7 @@
   <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1000,183 +1000,231 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="208" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="208" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="256" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="224" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>75</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="240" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="240" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1186,591 +1234,756 @@
       <c r="C18" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="320" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="B22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="C22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="176" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
         <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="144" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="335" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="192" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="192" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="240" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="240" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="335" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="224" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="224" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="256" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="160" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>20</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="192" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="288" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="272" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
         <v>18</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>26</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="240" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>32</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>46</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="224" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>1</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>29</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>43</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="176" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>57</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="144" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
         <v>28</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="256" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B71" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="176" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="288" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="335" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="272" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="128" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="272" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="288" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>20</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="208" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="224" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="256" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>26</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="192" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>85</v>
+      <c r="D71">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D71">
+    <sortCondition ref="B2:B71"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>